--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosei\Desktop\Docs\Codes\Peng_Robinson_eos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634639A9-C679-4823-8F98-4E17BCF4E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423A473-D112-442C-B49D-66C081F20628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{5735BB08-AECA-410D-A8E9-1302EF63FDFF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>a</t>
   </si>
@@ -179,12 +179,15 @@
   <si>
     <t>lny(model)</t>
   </si>
+  <si>
+    <t>exp(ln(y))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +271,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +321,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,27 +627,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -641,8 +663,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,17 +680,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
@@ -675,18 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,43 +702,16 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyAlignment="1">
@@ -745,16 +720,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
@@ -763,19 +729,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,19 +741,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,16 +750,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -832,16 +765,119 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -1329,7 +1365,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$A$11:$F$11</c15:sqref>
@@ -1362,7 +1398,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$H$6:$M$6</c15:sqref>
@@ -1394,7 +1430,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CEC1-4390-A8AA-48678813F355}"/>
                   </c:ext>
@@ -1422,7 +1458,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$A$12:$F$12</c15:sqref>
@@ -1455,7 +1491,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$H$7:$M$7</c15:sqref>
@@ -1487,7 +1523,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-CEC1-4390-A8AA-48678813F355}"/>
                   </c:ext>
@@ -1515,7 +1551,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$A$13:$F$13</c15:sqref>
@@ -1548,7 +1584,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>KM!$H$8:$M$8</c15:sqref>
@@ -1580,7 +1616,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-CEC1-4390-A8AA-48678813F355}"/>
                   </c:ext>
@@ -4186,7 +4222,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$A$13:$F$13</c15:sqref>
@@ -4219,7 +4255,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$H$13:$M$13</c15:sqref>
@@ -4251,7 +4287,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-8C91-4D92-80CF-7F1CB68AF6F1}"/>
                   </c:ext>
@@ -4293,7 +4329,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$A$14:$F$14</c15:sqref>
@@ -4326,7 +4362,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$H$14:$M$14</c15:sqref>
@@ -4358,7 +4394,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-8C91-4D92-80CF-7F1CB68AF6F1}"/>
                   </c:ext>
@@ -4402,7 +4438,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$A$15:$F$15</c15:sqref>
@@ -4435,7 +4471,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Chrastil Model'!$H$15:$M$15</c15:sqref>
@@ -4467,7 +4503,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-8C91-4D92-80CF-7F1CB68AF6F1}"/>
                   </c:ext>
@@ -6574,7 +6610,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Bian et al model'!$A$8:$F$8</c15:sqref>
@@ -6607,7 +6643,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Bian et al model'!$H$3:$M$3</c15:sqref>
@@ -6639,7 +6675,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1052-4E28-A0EC-2DCC675C7266}"/>
                   </c:ext>
@@ -6677,7 +6713,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Bian et al model'!$A$9:$F$9</c15:sqref>
@@ -6710,7 +6746,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Bian et al model'!$H$4:$M$4</c15:sqref>
@@ -6742,7 +6778,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1052-4E28-A0EC-2DCC675C7266}"/>
                   </c:ext>
@@ -11472,7 +11508,7 @@
         <v>5.0209E-3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="B2:N3" si="0">5.2409*10^-3</f>
+        <f t="shared" ref="E2:N3" si="0">5.2409*10^-3</f>
         <v>5.2408999999999997E-3</v>
       </c>
       <c r="I2">
@@ -11484,7 +11520,7 @@
         <v>4.6409000000000008E-3</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:L2" si="1">5.2409*10^-3</f>
+        <f t="shared" ref="K2" si="1">5.2409*10^-3</f>
         <v>5.2408999999999997E-3</v>
       </c>
       <c r="L2">
@@ -11506,369 +11542,369 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="19" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="5">
-        <f>$B1</f>
+        <f t="shared" ref="O4:T4" si="2">$B1</f>
         <v>-2.4761000000000002</v>
       </c>
       <c r="P4" s="5">
-        <f>$B1</f>
+        <f t="shared" si="2"/>
         <v>-2.4761000000000002</v>
       </c>
       <c r="Q4" s="5">
-        <f>$B1</f>
+        <f t="shared" si="2"/>
         <v>-2.4761000000000002</v>
       </c>
       <c r="R4" s="5">
-        <f>$B1</f>
+        <f t="shared" si="2"/>
         <v>-2.4761000000000002</v>
       </c>
       <c r="S4" s="5">
-        <f>$B1</f>
+        <f t="shared" si="2"/>
         <v>-2.4761000000000002</v>
       </c>
       <c r="T4" s="5">
-        <f>$B1</f>
+        <f t="shared" si="2"/>
         <v>-2.4761000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>2.0299999999999998</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>2.48</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>3.33</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>3.8</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>5.32</v>
       </c>
       <c r="G5" s="4">
         <v>308</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <f>LN(A5)</f>
         <v>0.70803579305369591</v>
       </c>
-      <c r="I5" s="11">
-        <f t="shared" ref="I5:M8" si="2">LN(B5)</f>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:M8" si="3">LN(B5)</f>
         <v>0.84156718567821853</v>
       </c>
-      <c r="J5" s="11">
-        <f t="shared" si="2"/>
+      <c r="J5" s="8">
+        <f t="shared" si="3"/>
         <v>0.90825856017689077</v>
       </c>
-      <c r="K5" s="11">
-        <f t="shared" si="2"/>
+      <c r="K5" s="8">
+        <f t="shared" si="3"/>
         <v>1.2029723039923526</v>
       </c>
-      <c r="L5" s="11">
-        <f t="shared" si="2"/>
+      <c r="L5" s="8">
+        <f t="shared" si="3"/>
         <v>1.33500106673234</v>
       </c>
-      <c r="M5" s="11">
-        <f t="shared" si="2"/>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
         <v>1.6714733033535532</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="5">
-        <f>$B2*A10</f>
+        <f t="shared" ref="O5:T5" si="4">$B2*A10</f>
         <v>3.6534420999999999</v>
       </c>
       <c r="P5" s="5">
-        <f>$B2*B10</f>
+        <f t="shared" si="4"/>
         <v>3.8814852999999996</v>
       </c>
       <c r="Q5" s="5">
-        <f>$B2*C10</f>
+        <f t="shared" si="4"/>
         <v>4.0335140999999997</v>
       </c>
       <c r="R5" s="5">
-        <f>$B2*D10</f>
+        <f t="shared" si="4"/>
         <v>4.1570374999999995</v>
       </c>
       <c r="S5" s="5">
-        <f>$B2*E10</f>
+        <f t="shared" si="4"/>
         <v>4.2568063999999994</v>
       </c>
       <c r="T5" s="5">
-        <f>$B2*F10</f>
+        <f t="shared" si="4"/>
         <v>4.3423226000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>1.63</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>2.11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>3.12</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>3.61</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>4.3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>5.96</v>
       </c>
       <c r="G6" s="4">
         <v>318</v>
       </c>
-      <c r="H6" s="11">
-        <f t="shared" ref="H6:H8" si="3">LN(A6)</f>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H8" si="5">LN(A6)</f>
         <v>0.48858001481867092</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" si="2"/>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
         <v>0.74668794748797507</v>
       </c>
-      <c r="J6" s="11">
-        <f t="shared" si="2"/>
+      <c r="J6" s="8">
+        <f t="shared" si="3"/>
         <v>1.1378330018213911</v>
       </c>
-      <c r="K6" s="11">
-        <f t="shared" si="2"/>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
         <v>1.2837077723447896</v>
       </c>
-      <c r="L6" s="11">
-        <f t="shared" si="2"/>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
         <v>1.4586150226995167</v>
       </c>
-      <c r="M6" s="11">
-        <f t="shared" si="2"/>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
         <v>1.7850704810772584</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="5">
-        <f>$C2*A11</f>
+        <f t="shared" ref="O6:T6" si="6">$C2*A11</f>
         <v>3.1866149000000004</v>
       </c>
       <c r="P6" s="5">
-        <f>$C2*B11</f>
+        <f t="shared" si="6"/>
         <v>3.5867496000000001</v>
       </c>
       <c r="Q6" s="5">
-        <f>$C2*C11</f>
+        <f t="shared" si="6"/>
         <v>3.8133319000000001</v>
       </c>
       <c r="R6" s="5">
-        <f>$C2*D11</f>
+        <f t="shared" si="6"/>
         <v>3.9724216000000001</v>
       </c>
       <c r="S6" s="5">
-        <f>$C2*E11</f>
+        <f t="shared" si="6"/>
         <v>4.1025859000000002</v>
       </c>
       <c r="T6" s="5">
-        <f>$C2*F11</f>
+        <f t="shared" si="6"/>
         <v>4.2038248000000005</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>1.29</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>1.96</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>3.76</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>4.08</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>5.36</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>7.22</v>
       </c>
       <c r="G7" s="4">
         <v>328</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25464221837358075</v>
+      </c>
+      <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>0.25464221837358075</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="2"/>
         <v>0.67294447324242579</v>
       </c>
-      <c r="J7" s="11">
-        <f t="shared" si="2"/>
+      <c r="J7" s="8">
+        <f t="shared" si="3"/>
         <v>1.324418957401803</v>
       </c>
-      <c r="K7" s="11">
-        <f t="shared" si="2"/>
+      <c r="K7" s="8">
+        <f t="shared" si="3"/>
         <v>1.4060969884160703</v>
       </c>
-      <c r="L7" s="11">
-        <f t="shared" si="2"/>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
         <v>1.6789639750827108</v>
       </c>
-      <c r="M7" s="11">
-        <f t="shared" si="2"/>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
         <v>1.9768549529047348</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="5">
-        <f>$D2*A12</f>
+        <f t="shared" ref="O7:T7" si="7">$D2*A12</f>
         <v>2.5556380999999999</v>
       </c>
       <c r="P7" s="5">
-        <f>$D2*B12</f>
+        <f t="shared" si="7"/>
         <v>3.2937104000000001</v>
       </c>
       <c r="Q7" s="5">
-        <f>$D2*C12</f>
+        <f t="shared" si="7"/>
         <v>3.6401525000000001</v>
       </c>
       <c r="R7" s="5">
-        <f>$D2*D12</f>
+        <f t="shared" si="7"/>
         <v>3.8610720999999999</v>
       </c>
       <c r="S7" s="5">
-        <f>$D2*E12</f>
+        <f t="shared" si="7"/>
         <v>4.0267618000000001</v>
       </c>
       <c r="T7" s="5">
-        <f>$D2*F12</f>
+        <f t="shared" si="7"/>
         <v>4.1623260999999996</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>0.9</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>1.52</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>6.1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>8.01</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="10">
         <v>338</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.10536051565782628</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="3"/>
-        <v>-0.10536051565782628</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="2"/>
         <v>0.41871033485818504</v>
       </c>
-      <c r="J8" s="12">
-        <f t="shared" si="2"/>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
         <v>1.4793292270870799</v>
       </c>
-      <c r="K8" s="12">
-        <f t="shared" si="2"/>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
         <v>1.5973653311998313</v>
       </c>
-      <c r="L8" s="12">
-        <f t="shared" si="2"/>
+      <c r="L8" s="9">
+        <f t="shared" si="3"/>
         <v>1.8082887711792655</v>
       </c>
-      <c r="M8" s="12">
-        <f t="shared" si="2"/>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
         <v>2.0806907610802678</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="5">
-        <f>$E2*A13</f>
+        <f t="shared" ref="O8:T8" si="8">$E2*A13</f>
         <v>2.0334691999999999</v>
       </c>
       <c r="P8" s="5">
-        <f>$E2*B13</f>
+        <f t="shared" si="8"/>
         <v>2.9191813</v>
       </c>
       <c r="Q8" s="5">
-        <f>$E2*C13</f>
+        <f t="shared" si="8"/>
         <v>3.4170667999999997</v>
       </c>
       <c r="R8" s="5">
-        <f>$E2*D13</f>
+        <f t="shared" si="8"/>
         <v>3.7210389999999998</v>
       </c>
       <c r="S8" s="5">
-        <f>$E2*E13</f>
+        <f t="shared" si="8"/>
         <v>3.9359158999999999</v>
       </c>
       <c r="T8" s="5">
-        <f>$E2*F13</f>
+        <f t="shared" si="8"/>
         <v>4.1036247000000001</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="19" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="5" t="s">
         <v>9</v>
       </c>
@@ -11911,31 +11947,31 @@
       <c r="F10" s="3">
         <v>914</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>308</v>
       </c>
-      <c r="H10" s="10">
-        <f>(-2.4761)+O5+O9</f>
+      <c r="H10" s="7">
+        <f t="shared" ref="H10:M13" si="9">(-2.4761)+O5+O9</f>
         <v>-13.597107900000001</v>
       </c>
-      <c r="I10" s="10">
-        <f>(-2.4761)+P5+P9</f>
+      <c r="I10" s="7">
+        <f t="shared" si="9"/>
         <v>-13.369064700000001</v>
       </c>
-      <c r="J10" s="10">
-        <f>(-2.4761)+Q5+Q9</f>
+      <c r="J10" s="7">
+        <f t="shared" si="9"/>
         <v>-13.217035900000001</v>
       </c>
-      <c r="K10" s="10">
-        <f>(-2.4761)+R5+R9</f>
+      <c r="K10" s="7">
+        <f t="shared" si="9"/>
         <v>-13.093512500000001</v>
       </c>
-      <c r="L10" s="10">
-        <f>(-2.4761)+S5+S9</f>
+      <c r="L10" s="7">
+        <f t="shared" si="9"/>
         <v>-12.9937436</v>
       </c>
-      <c r="M10" s="10">
-        <f>(-2.4761)+T5+T9</f>
+      <c r="M10" s="7">
+        <f t="shared" si="9"/>
         <v>-12.908227399999999</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -11980,31 +12016,31 @@
       <c r="F11" s="3">
         <v>872</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>318</v>
       </c>
-      <c r="H11" s="10">
-        <f>(-2.4761)+O6+O10</f>
+      <c r="H11" s="7">
+        <f t="shared" si="9"/>
         <v>-13.599329754088052</v>
       </c>
-      <c r="I11" s="10">
-        <f>(-2.4761)+P6+P10</f>
+      <c r="I11" s="7">
+        <f t="shared" si="9"/>
         <v>-13.199195054088051</v>
       </c>
-      <c r="J11" s="10">
-        <f>(-2.4761)+Q6+Q10</f>
+      <c r="J11" s="7">
+        <f t="shared" si="9"/>
         <v>-12.97261275408805</v>
       </c>
-      <c r="K11" s="10">
-        <f>(-2.4761)+R6+R10</f>
+      <c r="K11" s="7">
+        <f t="shared" si="9"/>
         <v>-12.813523054088051</v>
       </c>
-      <c r="L11" s="10">
-        <f>(-2.4761)+S6+S10</f>
+      <c r="L11" s="7">
+        <f t="shared" si="9"/>
         <v>-12.683358754088051</v>
       </c>
-      <c r="M11" s="10">
-        <f>(-2.4761)+T6+T10</f>
+      <c r="M11" s="7">
+        <f t="shared" si="9"/>
         <v>-12.582119854088051</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -12049,31 +12085,31 @@
       <c r="F12" s="3">
         <v>829</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>328</v>
       </c>
-      <c r="H12" s="10">
-        <f>(-2.4761)+O7+O11</f>
+      <c r="H12" s="7">
+        <f t="shared" si="9"/>
         <v>-13.794030802439025</v>
       </c>
-      <c r="I12" s="10">
-        <f>(-2.4761)+P7+P11</f>
+      <c r="I12" s="7">
+        <f t="shared" si="9"/>
         <v>-13.055958502439026</v>
       </c>
-      <c r="J12" s="10">
-        <f>(-2.4761)+Q7+Q11</f>
+      <c r="J12" s="7">
+        <f t="shared" si="9"/>
         <v>-12.709516402439025</v>
       </c>
-      <c r="K12" s="10">
-        <f>(-2.4761)+R7+R11</f>
+      <c r="K12" s="7">
+        <f t="shared" si="9"/>
         <v>-12.488596802439027</v>
       </c>
-      <c r="L12" s="10">
-        <f>(-2.4761)+S7+S11</f>
+      <c r="L12" s="7">
+        <f t="shared" si="9"/>
         <v>-12.322907102439025</v>
       </c>
-      <c r="M12" s="10">
-        <f>(-2.4761)+T7+T11</f>
+      <c r="M12" s="7">
+        <f t="shared" si="9"/>
         <v>-12.187342802439026</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -12118,160 +12154,160 @@
       <c r="F13" s="3">
         <v>783</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="11">
         <v>338</v>
       </c>
-      <c r="H13" s="10">
-        <f>(-2.4761)+O8+O12</f>
+      <c r="H13" s="7">
+        <f t="shared" si="9"/>
         <v>-13.905739084023669</v>
       </c>
-      <c r="I13" s="10">
-        <f>(-2.4761)+P8+P12</f>
+      <c r="I13" s="7">
+        <f t="shared" si="9"/>
         <v>-13.020026984023669</v>
       </c>
-      <c r="J13" s="10">
-        <f>(-2.4761)+Q8+Q12</f>
+      <c r="J13" s="7">
+        <f t="shared" si="9"/>
         <v>-12.522141484023669</v>
       </c>
-      <c r="K13" s="10">
-        <f>(-2.4761)+R8+R12</f>
+      <c r="K13" s="7">
+        <f t="shared" si="9"/>
         <v>-12.21816928402367</v>
       </c>
-      <c r="L13" s="10">
-        <f>(-2.4761)+S8+S12</f>
+      <c r="L13" s="7">
+        <f t="shared" si="9"/>
         <v>-12.00329238402367</v>
       </c>
-      <c r="M13" s="10">
-        <f>(-2.4761)+T8+T12</f>
+      <c r="M13" s="7">
+        <f t="shared" si="9"/>
         <v>-11.835583584023668</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>308</v>
       </c>
-      <c r="H15" s="10">
-        <f>H10-O9</f>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15:M18" si="10">H10-O9</f>
         <v>1.1773420999999988</v>
       </c>
-      <c r="I15" s="10">
-        <f>I10-P9</f>
+      <c r="I15" s="7">
+        <f t="shared" si="10"/>
         <v>1.4053852999999989</v>
       </c>
-      <c r="J15" s="10">
-        <f>J10-Q9</f>
+      <c r="J15" s="7">
+        <f t="shared" si="10"/>
         <v>1.557414099999999</v>
       </c>
-      <c r="K15" s="10">
-        <f>K10-R9</f>
+      <c r="K15" s="7">
+        <f t="shared" si="10"/>
         <v>1.6809374999999989</v>
       </c>
-      <c r="L15" s="10">
-        <f>L10-S9</f>
+      <c r="L15" s="7">
+        <f t="shared" si="10"/>
         <v>1.7807063999999997</v>
       </c>
-      <c r="M15" s="10">
-        <f>M10-T9</f>
+      <c r="M15" s="7">
+        <f t="shared" si="10"/>
         <v>1.8662226000000004</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>318</v>
       </c>
-      <c r="H16" s="10">
-        <f>H11-O10</f>
+      <c r="H16" s="7">
+        <f t="shared" si="10"/>
         <v>0.71051489999999973</v>
       </c>
-      <c r="I16" s="10">
-        <f>I11-P10</f>
+      <c r="I16" s="7">
+        <f t="shared" si="10"/>
         <v>1.1106496000000003</v>
       </c>
-      <c r="J16" s="10">
-        <f>J11-Q10</f>
+      <c r="J16" s="7">
+        <f t="shared" si="10"/>
         <v>1.3372319000000008</v>
       </c>
-      <c r="K16" s="10">
-        <f>K11-R10</f>
+      <c r="K16" s="7">
+        <f t="shared" si="10"/>
         <v>1.4963215999999999</v>
       </c>
-      <c r="L16" s="10">
-        <f>L11-S10</f>
+      <c r="L16" s="7">
+        <f t="shared" si="10"/>
         <v>1.6264859000000005</v>
       </c>
-      <c r="M16" s="10">
-        <f>M11-T10</f>
+      <c r="M16" s="7">
+        <f t="shared" si="10"/>
         <v>1.7277248000000007</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>328</v>
       </c>
-      <c r="H17" s="10">
-        <f>H12-O11</f>
+      <c r="H17" s="7">
+        <f t="shared" si="10"/>
         <v>7.9538100000000611E-2</v>
       </c>
-      <c r="I17" s="10">
-        <f>I12-P11</f>
+      <c r="I17" s="7">
+        <f t="shared" si="10"/>
         <v>0.81761039999999952</v>
       </c>
-      <c r="J17" s="10">
-        <f>J12-Q11</f>
+      <c r="J17" s="7">
+        <f t="shared" si="10"/>
         <v>1.1640525000000004</v>
       </c>
-      <c r="K17" s="10">
-        <f>K12-R11</f>
+      <c r="K17" s="7">
+        <f t="shared" si="10"/>
         <v>1.3849720999999988</v>
       </c>
-      <c r="L17" s="10">
-        <f>L12-S11</f>
+      <c r="L17" s="7">
+        <f t="shared" si="10"/>
         <v>1.5506618000000003</v>
       </c>
-      <c r="M17" s="10">
-        <f>M12-T11</f>
+      <c r="M17" s="7">
+        <f t="shared" si="10"/>
         <v>1.686226099999999</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>338</v>
       </c>
-      <c r="H18" s="10">
-        <f>H13-O12</f>
+      <c r="H18" s="7">
+        <f t="shared" si="10"/>
         <v>-0.44263079999999988</v>
       </c>
-      <c r="I18" s="10">
-        <f>I13-P12</f>
+      <c r="I18" s="7">
+        <f t="shared" si="10"/>
         <v>0.44308129999999935</v>
       </c>
-      <c r="J18" s="10">
-        <f>J13-Q12</f>
+      <c r="J18" s="7">
+        <f t="shared" si="10"/>
         <v>0.94096679999999999</v>
       </c>
-      <c r="K18" s="10">
-        <f>K13-R12</f>
+      <c r="K18" s="7">
+        <f t="shared" si="10"/>
         <v>1.2449389999999987</v>
       </c>
-      <c r="L18" s="10">
-        <f>L13-S12</f>
+      <c r="L18" s="7">
+        <f t="shared" si="10"/>
         <v>1.4598158999999988</v>
       </c>
-      <c r="M18" s="10">
-        <f>M13-T12</f>
+      <c r="M18" s="7">
+        <f t="shared" si="10"/>
         <v>1.6275247000000004</v>
       </c>
     </row>
@@ -12305,69 +12341,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="13">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <f>LN(A2)</f>
         <v>-13.107474764910579</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:M5" si="0">LN(B2)</f>
         <v>-12.973943372286056</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <f t="shared" si="0"/>
         <v>-12.907251997787384</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
         <v>-12.612538253971922</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <f t="shared" si="0"/>
         <v>-12.480509491231935</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f t="shared" si="0"/>
         <v>-12.144037254610721</v>
       </c>
@@ -12397,48 +12433,48 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="13">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="13">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H5" si="2">LN(A3)</f>
         <v>-13.326930543145604</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>-13.0688226104763</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>-12.677677556142884</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f t="shared" si="0"/>
         <v>-12.531802785619485</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <f t="shared" si="0"/>
         <v>-12.356895535264757</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <f t="shared" si="0"/>
         <v>-12.030440076887016</v>
       </c>
@@ -12468,48 +12504,48 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="13">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="13">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="13">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <f t="shared" si="2"/>
         <v>-13.560868339590693</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>-13.142566084721848</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>-12.491091600562472</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>-12.409413569548203</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>-12.136546582881563</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
         <v>-11.83865560505954</v>
       </c>
@@ -12539,48 +12575,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="13">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="13">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="13">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" si="2"/>
         <v>-13.9208710736221</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>-13.396800223106089</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>-12.336181330877194</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>-12.218145226764443</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>-12.007221786785008</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>-11.734819796884006</v>
       </c>
@@ -12610,33 +12646,33 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -12660,27 +12696,27 @@
       <c r="G7" s="4">
         <v>308</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="15">
         <f>$B12 + ($B13/$G7) + ($B14*LN((A7*G7)))</f>
         <v>-13.236362862257806</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="15">
         <f>$B12 + $B13/$G7 + $B14*LN(B7*G7)</f>
         <v>-12.921379404539366</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="15">
         <f>$B12 + $B13/$G7 + $B14*LN(C7*G7)</f>
         <v>-12.721510404791175</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="15">
         <f>$B12 + $B13/$G7 + $B14*LN(D7*G7)</f>
         <v>-12.56458760221048</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="15">
         <f>$B12 + $B13/$G7 + $B14*LN(E7*G7)</f>
         <v>-12.441209487441881</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="15">
         <f>$B12 + $B13/$G7 + $B14*LN(F7*G7)</f>
         <v>-12.337736905001293</v>
       </c>
@@ -12731,27 +12767,27 @@
       <c r="G8" s="4">
         <v>318</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(A8*G8)</f>
         <v>-13.443968043446255</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(B8*G8)</f>
         <v>-12.916738357975134</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(C8*G8)</f>
         <v>-12.643703956499209</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(D8*G8)</f>
         <v>-12.461526772520692</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(E8*G8)</f>
         <v>-12.31781951895595</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="15">
         <f>$C12 + $C13/$G8 + $C14*LN(F8*G8)</f>
         <v>-12.209165038186093</v>
       </c>
@@ -12802,27 +12838,27 @@
       <c r="G9" s="4">
         <v>328</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(A9*G9)</f>
         <v>-13.712928478505681</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(B9*G9)</f>
         <v>-12.846727702276802</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(C9*G9)</f>
         <v>-12.505280604971468</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(D9*G9)</f>
         <v>-12.304124172821595</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(E9*G9)</f>
         <v>-12.160671753693748</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="15">
         <f>$D12 + $D13/$G9 + $D14*LN(F9*G9)</f>
         <v>-12.047625620163402</v>
       </c>
@@ -12873,27 +12909,27 @@
       <c r="G10" s="4">
         <v>338</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(A10*G10)</f>
         <v>-14.103190916529641</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(B10*G10)</f>
         <v>-12.95961310785809</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(C10*G10)</f>
         <v>-12.461521760306283</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(D10*G10)</f>
         <v>-12.191978131499255</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(E10*G10)</f>
         <v>-12.014410769259314</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="15">
         <f>$E12 + $E13/$G10 + $E14*LN(F10*G10)</f>
         <v>-11.882432301074786</v>
       </c>
@@ -12938,144 +12974,144 @@
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="17">
         <v>-59.073999999999998</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="17">
         <v>-50.113</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="17">
         <v>-37.359000000000002</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="17">
         <v>-34.479999999999997</v>
       </c>
       <c r="G12" s="4">
         <v>308</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="15">
         <f>H7-N7</f>
         <v>5.3042173325473883</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="15">
         <f t="shared" ref="I12:M12" si="13">I7-O7</f>
         <v>5.619200790265829</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="15">
         <f t="shared" si="13"/>
         <v>5.8190697900140194</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="15">
         <f t="shared" si="13"/>
         <v>5.9759925925947144</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="15">
         <f t="shared" si="13"/>
         <v>6.0993707073633132</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="15">
         <f t="shared" si="13"/>
         <v>6.2028432898039014</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="14">
         <v>-5710.4987000000001</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="14">
         <v>-5710.4987000000001</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="14">
         <v>-5710.4987000000001</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="14">
         <v>-5710.4987000000001</v>
       </c>
       <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="15">
         <f>H8-N8</f>
         <v>4.5135750383147517</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="15">
         <f t="shared" ref="I13" si="14">I8-O8</f>
         <v>5.0408047237858717</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="15">
         <f t="shared" ref="J13" si="15">J8-P8</f>
         <v>5.3138391252617971</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="15">
         <f t="shared" ref="K13" si="16">K8-Q8</f>
         <v>5.4960163092403143</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="15">
         <f t="shared" ref="L13" si="17">L8-R8</f>
         <v>5.6397235628050559</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="15">
         <f t="shared" ref="M13" si="18">M8-S8</f>
         <v>5.7483780435749132</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="14">
         <v>5.2022000000000004</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="14">
         <v>4.4572000000000003</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="14">
         <v>3.4140999999999999</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="14">
         <v>3.1629</v>
       </c>
       <c r="G14" s="4">
         <v>328</v>
       </c>
-      <c r="H14" s="26">
-        <f t="shared" ref="H13:H15" si="19">H9-N9</f>
+      <c r="H14" s="15">
+        <f t="shared" ref="H14:H15" si="19">H9-N9</f>
         <v>3.6971285336894404</v>
       </c>
-      <c r="I14" s="26">
-        <f t="shared" ref="I13:I15" si="20">I9-O9</f>
+      <c r="I14" s="15">
+        <f t="shared" ref="I14:I15" si="20">I9-O9</f>
         <v>4.5633293099183199</v>
       </c>
-      <c r="J14" s="26">
-        <f t="shared" ref="J13:J15" si="21">J9-P9</f>
+      <c r="J14" s="15">
+        <f t="shared" ref="J14:J15" si="21">J9-P9</f>
         <v>4.9047764072236539</v>
       </c>
-      <c r="K14" s="26">
-        <f t="shared" ref="K13:K15" si="22">K9-Q9</f>
+      <c r="K14" s="15">
+        <f t="shared" ref="K14:K15" si="22">K9-Q9</f>
         <v>5.1059328393735264</v>
       </c>
-      <c r="L14" s="26">
-        <f t="shared" ref="L13:L15" si="23">L9-R9</f>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14:L15" si="23">L9-R9</f>
         <v>5.2493852585013734</v>
       </c>
-      <c r="M14" s="26">
-        <f t="shared" ref="M13:M15" si="24">M9-S9</f>
+      <c r="M14" s="15">
+        <f t="shared" ref="M14:M15" si="24">M9-S9</f>
         <v>5.3624313920317199</v>
       </c>
     </row>
@@ -13083,27 +13119,27 @@
       <c r="G15" s="4">
         <v>338</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="15">
         <f t="shared" si="19"/>
         <v>2.7917756515176961</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="15">
         <f t="shared" si="20"/>
         <v>3.9353534601892477</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="15">
         <f t="shared" si="21"/>
         <v>4.4334448077410542</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="15">
         <f t="shared" si="22"/>
         <v>4.7029884365480825</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="15">
         <f t="shared" si="23"/>
         <v>4.8805557987880235</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="15">
         <f t="shared" si="24"/>
         <v>5.0125342669725512</v>
       </c>
@@ -13112,40 +13148,40 @@
       <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G17" s="4">
         <v>308</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="15">
         <f>LN(A7*$G7)</f>
         <v>12.375190752479218</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="15">
         <f t="shared" ref="I17:M17" si="25">LN(B7*$G7)</f>
         <v>12.435738877833577</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="15">
         <f t="shared" si="25"/>
         <v>12.474158969284922</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="15">
         <f t="shared" si="25"/>
         <v>12.504323669331189</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="15">
         <f t="shared" si="25"/>
         <v>12.528040195948504</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="15">
         <f t="shared" si="25"/>
         <v>12.547930354427724</v>
       </c>
@@ -13154,27 +13190,27 @@
       <c r="G18" s="4">
         <v>318</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="15">
         <f t="shared" ref="H18:H20" si="26">LN(A8*$G8)</f>
         <v>12.255805222631864</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="15">
         <f t="shared" ref="I18:I20" si="27">LN(B8*$G8)</f>
         <v>12.374092417613269</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="15">
         <f t="shared" ref="J18:J20" si="28">LN(C8*$G8)</f>
         <v>12.435349350547831</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="15">
         <f t="shared" ref="K18:K20" si="29">LN(D8*$G8)</f>
         <v>12.476221912689649</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="15">
         <f t="shared" ref="L18:L20" si="30">LN(E8*$G8)</f>
         <v>12.508463511353551</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="15">
         <f t="shared" ref="M18:M20" si="31">LN(F8*$G8)</f>
         <v>12.532840806689157</v>
       </c>
@@ -13183,27 +13219,27 @@
       <c r="G19" s="4">
         <v>328</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="15">
         <f t="shared" si="26"/>
         <v>12.025461624934666</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="15">
         <f t="shared" si="27"/>
         <v>12.279174397328232</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="15">
         <f t="shared" si="28"/>
         <v>12.379185263238819</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="15">
         <f t="shared" si="29"/>
         <v>12.438104577889789</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="15">
         <f t="shared" si="30"/>
         <v>12.480122216250658</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="15">
         <f t="shared" si="31"/>
         <v>12.513233763519439</v>
       </c>
@@ -13212,40 +13248,40 @@
       <c r="G20" s="4">
         <v>338</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="15">
         <f t="shared" si="26"/>
         <v>11.784051235106292</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="15">
         <f t="shared" si="27"/>
         <v>12.145611135410302</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="15">
         <f t="shared" si="28"/>
         <v>12.303090457409672</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="15">
         <f t="shared" si="29"/>
         <v>12.388310865518379</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="15">
         <f t="shared" si="30"/>
         <v>12.444451547247153</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="15">
         <f t="shared" si="31"/>
         <v>12.486178591473822</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13267,346 +13303,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="42" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="13">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="21">
         <f>(A7*598.5*A2)/((1-A2)*44.01)</f>
         <v>2.1229318146640579E-2</v>
       </c>
-      <c r="I2" s="40">
-        <f t="shared" ref="I2:M2" si="0">(B7*598.5*B2)/((1-B2)*44.01)</f>
+      <c r="I2" s="21">
+        <f t="shared" ref="I2:L2" si="0">(B7*598.5*B2)/((1-B2)*44.01)</f>
         <v>2.5776493339296859E-2</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="21">
         <f t="shared" si="0"/>
         <v>2.8633420704134879E-2</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="21">
         <f t="shared" si="0"/>
         <v>3.9624748514829729E-2</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="21">
         <f t="shared" si="0"/>
         <v>4.6302670837674746E-2</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="21">
         <f>(F7*598.5*F2)/((1-F2)*44.01)</f>
         <v>6.6126102302111689E-2</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="23">
         <f>LN(H2)-N7</f>
         <v>18.092732099551377</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="23">
         <f t="shared" ref="O2:S2" si="1">LN(I2)-O7</f>
         <v>18.28681190753089</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="23">
         <f t="shared" si="1"/>
         <v>18.39192353348129</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="23">
         <f t="shared" si="1"/>
         <v>18.716802827345486</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="23">
         <f t="shared" si="1"/>
         <v>18.872548586704465</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="23">
         <f t="shared" si="1"/>
         <v>19.228912501811831</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="13">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="13">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="21">
         <f t="shared" ref="H3:H5" si="2">(A8*598.5*A3)/((1-A3)*44.01)</f>
         <v>1.4652190549737262E-2</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="21">
         <f t="shared" ref="I3:I5" si="3">(B8*598.5*B3)/((1-B3)*44.01)</f>
         <v>2.1348584922814797E-2</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="21">
         <f t="shared" ref="J3:J5" si="4">(C8*598.5*C3)/((1-C3)*44.01)</f>
         <v>3.3561797964343394E-2</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="21">
         <f t="shared" ref="K3:K5" si="5">(D8*598.5*D3)/((1-D3)*44.01)</f>
         <v>4.0452816791314836E-2</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:M5" si="6">(E8*598.5*E3)/((1-E3)*44.01)</f>
         <v>4.9763700691479437E-2</v>
       </c>
-      <c r="M3" s="40">
+      <c r="M3" s="21">
         <f t="shared" si="6"/>
         <v>7.067700201202809E-2</v>
       </c>
-      <c r="N3" s="45">
+      <c r="N3" s="23">
         <f t="shared" ref="N3:N5" si="7">LN(H3)-N8</f>
         <v>17.031841174656023</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="23">
         <f t="shared" ref="O3:O5" si="8">LN(I3)-O8</f>
         <v>17.408236782307629</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="23">
         <f t="shared" ref="P3:P5" si="9">LN(J3)-P8</f>
         <v>17.86063977957825</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="23">
         <f t="shared" ref="Q3:Q5" si="10">LN(K3)-Q8</f>
         <v>18.047387602245117</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="23">
         <f t="shared" ref="R3:R5" si="11">LN(L3)-R8</f>
         <v>18.254537141266475</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="23">
         <f t="shared" ref="S3:S5" si="12">LN(M3)-S8</f>
         <v>18.605371554988338</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="13">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="13">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="13">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="21">
         <f t="shared" si="2"/>
         <v>8.9293704145933569E-3</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="21">
         <f t="shared" si="3"/>
         <v>1.7485318524803041E-2</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="21">
         <f t="shared" si="4"/>
         <v>3.7071509532025121E-2</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="21">
         <f t="shared" si="5"/>
         <v>4.266787960642119E-2</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="21">
         <f t="shared" si="6"/>
         <v>5.8459389006946756E-2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="21">
         <f t="shared" ref="M4:M5" si="13">(F9*598.5*F4)/((1-F4)*44.01)</f>
         <v>8.1396859668966884E-2</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="23">
         <f t="shared" si="7"/>
         <v>15.888578720891788</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="23">
         <f t="shared" si="8"/>
         <v>16.56059441815529</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="23">
         <f t="shared" si="9"/>
         <v>17.312081568230401</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="23">
         <f t="shared" si="10"/>
         <v>17.452679233896891</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="23">
         <f t="shared" si="11"/>
         <v>17.767565138930443</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="23">
         <f t="shared" si="12"/>
         <v>18.098569524032946</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="13">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="13">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="13">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="21">
         <f t="shared" si="2"/>
         <v>4.7488386297829879E-3</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="21">
         <f t="shared" si="3"/>
         <v>1.1513628952658748E-2</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="21">
         <f t="shared" si="4"/>
         <v>3.8924837546703492E-2</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="21">
         <f t="shared" si="5"/>
         <v>4.7698006589297751E-2</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="21">
         <f t="shared" si="6"/>
         <v>6.229959270645212E-2</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="21">
         <f t="shared" si="13"/>
         <v>8.5292440861162944E-2</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="23">
         <f t="shared" si="7"/>
         <v>14.647458715502051</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="23">
         <f t="shared" si="8"/>
         <v>15.533090086322822</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="23">
         <f t="shared" si="9"/>
         <v>16.751191170559569</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="23">
         <f t="shared" si="10"/>
         <v>16.954448232783594</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="23">
         <f t="shared" si="11"/>
         <v>17.221513514498206</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="23">
         <f t="shared" si="12"/>
         <v>17.53564445863935</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="37" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -13630,51 +13666,51 @@
       <c r="G7" s="4">
         <v>308</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="19">
         <f>$B19*(LN(A7)) + $B20 + ($B21/$G7)</f>
         <v>-4.2015462708147702</v>
       </c>
-      <c r="I7" s="36">
-        <f t="shared" ref="I7:M7" si="14">$B19*(LN(B7)) + $B20 + ($B21/$G7)</f>
+      <c r="I7" s="19">
+        <f t="shared" ref="I7:L7" si="14">$B19*(LN(B7)) + $B20 + ($B21/$G7)</f>
         <v>-3.9236969783761531</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="19">
         <f t="shared" si="14"/>
         <v>-3.747391020715078</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="19">
         <f t="shared" si="14"/>
         <v>-3.6089682286727687</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="19">
         <f t="shared" si="14"/>
         <v>-3.5001354596785639</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="19">
         <f>$B19*(LN(F7)) + $B20 + ($B21/$G7)</f>
         <v>-3.4088615114332761</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="20">
         <f>$B21/$G7</f>
         <v>-21.945104220779221</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="20">
         <f t="shared" ref="O7:S7" si="15">$B21/$G7</f>
         <v>-21.945104220779221</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="20">
         <f t="shared" si="15"/>
         <v>-21.945104220779221</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="20">
         <f t="shared" si="15"/>
         <v>-21.945104220779221</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="20">
         <f t="shared" si="15"/>
         <v>-21.945104220779221</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="20">
         <f t="shared" si="15"/>
         <v>-21.945104220779221</v>
       </c>
@@ -13701,51 +13737,51 @@
       <c r="G8" s="4">
         <v>318</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="19">
         <f>$C19*(LN(A8)) + $C20 + ($C21/$G8)</f>
         <v>-4.2059196080781831</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="19">
         <f t="shared" ref="I8:M8" si="16">$C19*(LN(B8)) + $C20 + ($C21/$G8)</f>
         <v>-3.6631114990280125</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="19">
         <f t="shared" si="16"/>
         <v>-3.3820095594845974</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="19">
         <f t="shared" si="16"/>
         <v>-3.1944494590720076</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="19">
         <f t="shared" si="16"/>
         <v>-3.046495986963226</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="19">
         <f t="shared" si="16"/>
         <v>-2.9346310163976703</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="20">
         <f>$C21/$G8</f>
         <v>-21.255006603773584</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="20">
         <f t="shared" ref="O8:S8" si="17">$C21/$G8</f>
         <v>-21.255006603773584</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="20">
         <f t="shared" si="17"/>
         <v>-21.255006603773584</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="20">
         <f t="shared" si="17"/>
         <v>-21.255006603773584</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="20">
         <f t="shared" si="17"/>
         <v>-21.255006603773584</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="20">
         <f t="shared" si="17"/>
         <v>-21.255006603773584</v>
       </c>
@@ -13772,51 +13808,51 @@
       <c r="G9" s="4">
         <v>328</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="19">
         <f>$D19*(LN(A9)) + $D20 + ($D21/$G9)</f>
         <v>-4.7570074066074071</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="19">
         <f t="shared" ref="I9:M9" si="18">$D19*(LN(B9)) + $D20 + ($D21/$G9)</f>
         <v>-3.5927448653705731</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="19">
         <f t="shared" si="18"/>
         <v>-3.1338050027934834</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="19">
         <f t="shared" si="18"/>
         <v>-2.8634301597916476</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="19">
         <f t="shared" si="18"/>
         <v>-2.6706154191174498</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="19">
         <f t="shared" si="18"/>
         <v>-2.5186698398557432</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="20">
         <f>$D21/$G9</f>
         <v>-20.606988109756099</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="20">
         <f t="shared" ref="O9:S9" si="19">$D21/$G9</f>
         <v>-20.606988109756099</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="20">
         <f t="shared" si="19"/>
         <v>-20.606988109756099</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="20">
         <f t="shared" si="19"/>
         <v>-20.606988109756099</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="20">
         <f t="shared" si="19"/>
         <v>-20.606988109756099</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="20">
         <f t="shared" si="19"/>
         <v>-20.606988109756099</v>
       </c>
@@ -13843,81 +13879,81 @@
       <c r="G10" s="4">
         <v>338</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="19">
         <f>$E19*(LN(A10)) + $E20 + ($E21/$G10)</f>
         <v>-5.3929565023282073</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="19">
         <f t="shared" ref="I10:M10" si="20">$E19*(LN(B10)) + $E20 + ($E21/$G10)</f>
         <v>-3.7337942758231328</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="19">
         <f t="shared" si="20"/>
         <v>-3.0111374151002295</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="19">
         <f t="shared" si="20"/>
         <v>-2.6200694843301768</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="19">
         <f t="shared" si="20"/>
         <v>-2.3624455099450081</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="19">
         <f t="shared" si="20"/>
         <v>-2.1709642766932511</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="20">
         <f>$E21/$G10</f>
         <v>-19.997313905325445</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="20">
         <f t="shared" ref="O10:S10" si="21">$E21/$G10</f>
         <v>-19.997313905325445</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="20">
         <f t="shared" si="21"/>
         <v>-19.997313905325445</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="20">
         <f t="shared" si="21"/>
         <v>-19.997313905325445</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="20">
         <f t="shared" si="21"/>
         <v>-19.997313905325445</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="20">
         <f t="shared" si="21"/>
         <v>-19.997313905325445</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -13947,27 +13983,27 @@
       <c r="G12" s="4">
         <v>308</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="19">
         <f>H7-N7</f>
         <v>17.743557949964451</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="19">
         <f t="shared" ref="I12:M12" si="23">I7-O7</f>
         <v>18.021407242403068</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="19">
         <f t="shared" si="23"/>
         <v>18.197713200064143</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="19">
         <f t="shared" si="23"/>
         <v>18.336135992106453</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="19">
         <f t="shared" si="23"/>
         <v>18.444968761100657</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="19">
         <f t="shared" si="23"/>
         <v>18.536242709345945</v>
       </c>
@@ -14000,27 +14036,27 @@
       <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="19">
         <f t="shared" ref="H13:H15" si="25">H8-N8</f>
         <v>17.049086995695401</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="19">
         <f t="shared" ref="I13:I15" si="26">I8-O8</f>
         <v>17.591895104745571</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="19">
         <f t="shared" ref="J13:J15" si="27">J8-P8</f>
         <v>17.872997044288987</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="19">
         <f t="shared" ref="K13:K15" si="28">K8-Q8</f>
         <v>18.060557144701576</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="19">
         <f t="shared" ref="L13:L15" si="29">L8-R8</f>
         <v>18.208510616810358</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="19">
         <f t="shared" ref="M13:M15" si="30">M8-S8</f>
         <v>18.320375587375914</v>
       </c>
@@ -14053,27 +14089,27 @@
       <c r="G14" s="4">
         <v>328</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="19">
         <f t="shared" si="25"/>
         <v>15.849980703148692</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="19">
         <f t="shared" si="26"/>
         <v>17.014243244385526</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="19">
         <f t="shared" si="27"/>
         <v>17.473183106962615</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="19">
         <f t="shared" si="28"/>
         <v>17.743557949964451</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="19">
         <f t="shared" si="29"/>
         <v>17.936372690638649</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="19">
         <f t="shared" si="30"/>
         <v>18.088318269900356</v>
       </c>
@@ -14106,108 +14142,108 @@
       <c r="G15" s="4">
         <v>338</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="19">
         <f t="shared" si="25"/>
         <v>14.604357402997238</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="19">
         <f t="shared" si="26"/>
         <v>16.263519629502312</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="19">
         <f t="shared" si="27"/>
         <v>16.986176490225215</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="19">
         <f t="shared" si="28"/>
         <v>17.377244420995268</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="19">
         <f t="shared" si="29"/>
         <v>17.634868395380437</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="19">
         <f t="shared" si="30"/>
         <v>17.826349628632194</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15">
         <v>308</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="15">
         <v>318</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="15">
         <v>328</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="15">
         <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="15">
         <v>4.5888999999999998</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="15">
         <v>4.5888999999999998</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="15">
         <v>4.5888999999999998</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="15">
         <v>4.5888999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="15">
         <v>-12.7501</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="15">
         <v>-12.7501</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="15">
         <v>-12.7501</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="15">
         <v>-12.7501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="15">
         <v>-6759.0920999999998</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="15">
         <v>-6759.0920999999998</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="15">
         <v>-6759.0920999999998</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="15">
         <v>-6759.0920999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="N6:S6"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14228,104 +14264,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="54" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
       <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="13">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="21">
         <f>LN(A2)</f>
         <v>-13.107474764910579</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="21">
         <f t="shared" ref="I2:M2" si="0">LN(B2)</f>
         <v>-12.973943372286056</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="21">
         <f t="shared" si="0"/>
         <v>-12.907251997787384</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="21">
         <f t="shared" si="0"/>
         <v>-12.612538253971922</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="21">
         <f t="shared" si="0"/>
         <v>-12.480509491231935</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="22">
         <f t="shared" si="0"/>
         <v>-12.144037254610721</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="28">
         <f>H2-N7</f>
         <v>9.1188128974270821</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="28">
         <f t="shared" ref="O2:S2" si="1">I2-O7</f>
         <v>9.2523442900516049</v>
       </c>
-      <c r="P2" s="55">
+      <c r="P2" s="28">
         <f t="shared" si="1"/>
         <v>9.3190356645502774</v>
       </c>
-      <c r="Q2" s="55">
+      <c r="Q2" s="28">
         <f t="shared" si="1"/>
         <v>9.6137494083657398</v>
       </c>
-      <c r="R2" s="55">
+      <c r="R2" s="28">
         <f t="shared" si="1"/>
         <v>9.7457781711057265</v>
       </c>
-      <c r="S2" s="55">
+      <c r="S2" s="28">
         <f t="shared" si="1"/>
         <v>10.08225040772694</v>
       </c>
@@ -14339,246 +14375,246 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="13">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="13">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="21">
         <f t="shared" ref="H3:H5" si="2">LN(A3)</f>
         <v>-13.326930543145604</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="21">
         <f t="shared" ref="I3:I5" si="3">LN(B3)</f>
         <v>-13.0688226104763</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="21">
         <f t="shared" ref="J3:J5" si="4">LN(C3)</f>
         <v>-12.677677556142884</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="21">
         <f t="shared" ref="K3:K5" si="5">LN(D3)</f>
         <v>-12.531802785619485</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:L5" si="6">LN(E3)</f>
         <v>-12.356895535264757</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="22">
         <f t="shared" ref="M3:M5" si="7">LN(F3)</f>
         <v>-12.030440076887016</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="28">
         <f t="shared" ref="N3:N5" si="8">H3-N8</f>
         <v>8.200417255596534</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="28">
         <f t="shared" ref="O3:O5" si="9">I3-O8</f>
         <v>8.4585251882658383</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="28">
         <f t="shared" ref="P3:P5" si="10">J3-P8</f>
         <v>8.8496702425992542</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="28">
         <f t="shared" ref="Q3:Q5" si="11">K3-Q8</f>
         <v>8.9955450131226531</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="28">
         <f t="shared" ref="R3:R5" si="12">L3-R8</f>
         <v>9.1704522634773813</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="28">
         <f t="shared" ref="S3:S5" si="13">M3-S8</f>
         <v>9.4969077218551217</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="13">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="13">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="13">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="21">
         <f t="shared" si="2"/>
         <v>-13.560868339590693</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="21">
         <f t="shared" si="3"/>
         <v>-13.142566084721848</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="21">
         <f t="shared" si="4"/>
         <v>-12.491091600562472</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="21">
         <f t="shared" si="5"/>
         <v>-12.409413569548203</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="21">
         <f t="shared" si="6"/>
         <v>-12.136546582881563</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="22">
         <f t="shared" si="7"/>
         <v>-11.83865560505954</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="28">
         <f t="shared" si="8"/>
         <v>7.310157879921503</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="28">
         <f t="shared" si="9"/>
         <v>7.7284601347903479</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="28">
         <f t="shared" si="10"/>
         <v>8.3799346189497239</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="28">
         <f t="shared" si="11"/>
         <v>8.4616126499639925</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="28">
         <f t="shared" si="12"/>
         <v>8.734479636630633</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="28">
         <f t="shared" si="13"/>
         <v>9.0323706144526561</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="13">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="13">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="13">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="26">
         <f t="shared" si="2"/>
         <v>-13.9208710736221</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="26">
         <f t="shared" si="3"/>
         <v>-13.396800223106089</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="26">
         <f t="shared" si="4"/>
         <v>-12.336181330877194</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="26">
         <f t="shared" si="5"/>
         <v>-12.218145226764443</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="26">
         <f t="shared" si="6"/>
         <v>-12.007221786785008</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="27">
         <f t="shared" si="7"/>
         <v>-11.734819796884006</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="28">
         <f t="shared" si="8"/>
         <v>6.3326691630642902</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="28">
         <f t="shared" si="9"/>
         <v>6.8567400135803016</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="28">
         <f t="shared" si="10"/>
         <v>7.9173589058091967</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="28">
         <f t="shared" si="11"/>
         <v>8.0353950099219471</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="28">
         <f t="shared" si="12"/>
         <v>8.2463184499013824</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="28">
         <f t="shared" si="13"/>
         <v>8.5187204398023848</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="53" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -14602,51 +14638,51 @@
       <c r="G7" s="4">
         <v>308</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <f>$B17 + $B18*(A7-700) + $B19/$G7</f>
         <v>617.76861233766238</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="14">
         <f t="shared" ref="I7:M7" si="14">$B17 + $B18*(B7-700) + $B19/$G7</f>
         <v>1053.7382123376626</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="14">
         <f t="shared" si="14"/>
         <v>1344.3846123376625</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="14">
         <f t="shared" si="14"/>
         <v>1580.5348123376625</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="14">
         <f t="shared" si="14"/>
         <v>1771.2715123376627</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="14">
         <f t="shared" si="14"/>
         <v>1934.7601123376626</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="15">
         <f>$B19/$G7</f>
         <v>-22.226287662337661</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="15">
         <f t="shared" ref="O7:S7" si="15">$B19/$G7</f>
         <v>-22.226287662337661</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="15">
         <f t="shared" si="15"/>
         <v>-22.226287662337661</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="15">
         <f t="shared" si="15"/>
         <v>-22.226287662337661</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="15">
         <f t="shared" si="15"/>
         <v>-22.226287662337661</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="15">
         <f t="shared" si="15"/>
         <v>-22.226287662337661</v>
       </c>
@@ -14673,51 +14709,51 @@
       <c r="G8" s="4">
         <v>318</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="14">
         <f>$B17 + $B18*(A8-700) + $B19/$G8</f>
         <v>-362.46404779874223</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="14">
         <f t="shared" ref="I8:M8" si="16">$B17 + $B18*(B8-700) + $B19/$G8</f>
         <v>391.40005220125789</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="14">
         <f t="shared" si="16"/>
         <v>818.28695220125792</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="14">
         <f t="shared" si="16"/>
         <v>1118.0160522012582</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="14">
         <f t="shared" si="16"/>
         <v>1363.2489522012581</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="14">
         <f t="shared" si="16"/>
         <v>1553.9856522012581</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="15">
         <f>$B19/$G8</f>
         <v>-21.527347798742138</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="15">
         <f t="shared" ref="O8:S8" si="17">$B19/$G8</f>
         <v>-21.527347798742138</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="15">
         <f t="shared" si="17"/>
         <v>-21.527347798742138</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="15">
         <f t="shared" si="17"/>
         <v>-21.527347798742138</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="15">
         <f t="shared" si="17"/>
         <v>-21.527347798742138</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="15">
         <f t="shared" si="17"/>
         <v>-21.527347798742138</v>
       </c>
@@ -14744,51 +14780,51 @@
       <c r="G9" s="4">
         <v>328</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <f>$B17 + $B18*(A9-700) + $B19/$G9</f>
         <v>-1742.3781262195123</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="14">
         <f t="shared" ref="I9:M9" si="18">$B17 + $B18*(B9-700) + $B19/$G9</f>
         <v>-407.22122621951229</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="14">
         <f t="shared" si="18"/>
         <v>219.48507378048782</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="14">
         <f t="shared" si="18"/>
         <v>619.12387378048788</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="14">
         <f t="shared" si="18"/>
         <v>918.8529737804879</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="14">
         <f t="shared" si="18"/>
         <v>1164.0858737804879</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="15">
         <f>$B19/$G9</f>
         <v>-20.871026219512196</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="15">
         <f t="shared" ref="O9:S9" si="19">$B19/$G9</f>
         <v>-20.871026219512196</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="15">
         <f t="shared" si="19"/>
         <v>-20.871026219512196</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="15">
         <f t="shared" si="19"/>
         <v>-20.871026219512196</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="15">
         <f t="shared" si="19"/>
         <v>-20.871026219512196</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="15">
         <f t="shared" si="19"/>
         <v>-20.871026219512196</v>
       </c>
@@ -14815,83 +14851,83 @@
       <c r="G10" s="4">
         <v>338</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <f>$B17 + $B18*(A10-700) + $B19/$G10</f>
         <v>-2840.7673402366872</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <f t="shared" ref="I10:M10" si="20">$B17 + $B18*(B10-700) + $B19/$G10</f>
         <v>-1305.7910402366865</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="14">
         <f t="shared" si="20"/>
         <v>-442.93454023668642</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="14">
         <f t="shared" si="20"/>
         <v>83.862059763313624</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <f t="shared" si="20"/>
         <v>456.25275976331363</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="14">
         <f t="shared" si="20"/>
         <v>746.89915976331372</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="15">
         <f>$B19/$G10</f>
         <v>-20.253540236686391</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="15">
         <f t="shared" ref="O10:S10" si="21">$B19/$G10</f>
         <v>-20.253540236686391</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="15">
         <f t="shared" si="21"/>
         <v>-20.253540236686391</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="15">
         <f t="shared" si="21"/>
         <v>-20.253540236686391</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="15">
         <f t="shared" si="21"/>
         <v>-20.253540236686391</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="15">
         <f t="shared" si="21"/>
         <v>-20.253540236686391</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="56" t="s">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -14921,51 +14957,51 @@
       <c r="G12" s="4">
         <v>308</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="19">
         <f>H7-N12</f>
         <v>174.69038965840883</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="19">
         <f t="shared" ref="I12:M12" si="23">I7-O12</f>
         <v>610.43684610709488</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="19">
         <f t="shared" si="23"/>
         <v>900.90092455030072</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="19">
         <f t="shared" si="23"/>
         <v>1136.8969738704736</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="19">
         <f t="shared" si="23"/>
         <v>1327.5001424778493</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="19">
         <f t="shared" si="23"/>
         <v>1490.8709594421928</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="29">
         <f>(LN(A16) -$U2 + N7)</f>
         <v>443.07822267925354</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="29">
         <f t="shared" ref="O12:S12" si="24">(LN(B16) -$U2 + O7)</f>
         <v>443.30136623056774</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="29">
         <f t="shared" si="24"/>
         <v>443.4836877873617</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="29">
         <f t="shared" si="24"/>
         <v>443.637838467189</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="29">
         <f t="shared" si="24"/>
         <v>443.77136985981349</v>
       </c>
-      <c r="S12" s="57">
+      <c r="S12" s="29">
         <f t="shared" si="24"/>
         <v>443.88915289546986</v>
       </c>
@@ -14998,33 +15034,33 @@
       <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="57">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="29">
         <f>(LN(A16) -$U2 + N8)</f>
         <v>443.77716254284906</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="29">
         <f t="shared" ref="O13:S13" si="26">(LN(B16) -$U2 + O8)</f>
         <v>444.00030609416325</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="29">
         <f t="shared" si="26"/>
         <v>444.18262765095722</v>
       </c>
-      <c r="Q13" s="57">
+      <c r="Q13" s="29">
         <f t="shared" si="26"/>
         <v>444.33677833078451</v>
       </c>
-      <c r="R13" s="57">
+      <c r="R13" s="29">
         <f t="shared" si="26"/>
         <v>444.470309723409</v>
       </c>
-      <c r="S13" s="57">
+      <c r="S13" s="29">
         <f t="shared" si="26"/>
         <v>444.58809275906538</v>
       </c>
@@ -15057,33 +15093,33 @@
       <c r="G14" s="4">
         <v>328</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="57">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="29">
         <f>(LN(A16) -$U2 + N9)</f>
         <v>444.43348412207899</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="29">
         <f t="shared" ref="O14:S14" si="28">(LN(B16) -$U2 + O9)</f>
         <v>444.65662767339319</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="29">
         <f t="shared" si="28"/>
         <v>444.83894923018715</v>
       </c>
-      <c r="Q14" s="57">
+      <c r="Q14" s="29">
         <f t="shared" si="28"/>
         <v>444.99309991001445</v>
       </c>
-      <c r="R14" s="57">
+      <c r="R14" s="29">
         <f t="shared" si="28"/>
         <v>445.12663130263894</v>
       </c>
-      <c r="S14" s="57">
+      <c r="S14" s="29">
         <f t="shared" si="28"/>
         <v>445.24441433829531</v>
       </c>
@@ -15116,101 +15152,101 @@
       <c r="G15" s="4">
         <v>338</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="57">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="29">
         <f>(LN(A16) -$U2 + N10)</f>
         <v>445.05097010490482</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="29">
         <f t="shared" ref="O15:S15" si="30">(LN(B16) -$U2 + O10)</f>
         <v>445.27411365621901</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="29">
         <f t="shared" si="30"/>
         <v>445.45643521301298</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="29">
         <f t="shared" si="30"/>
         <v>445.61058589284028</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="29">
         <f t="shared" si="30"/>
         <v>445.74411728546477</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="29">
         <f t="shared" si="30"/>
         <v>445.86190032112114</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="A16" s="18">
         <v>120</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="18">
         <v>150</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="18">
         <v>180</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="18">
         <v>210</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="18">
         <v>240</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="18">
         <v>270</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="15">
         <v>13.288600000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="15">
         <v>9.0827000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="15">
         <v>-6845.6966000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
+      <c r="B21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="H11:M11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="H11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15231,346 +15267,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="58" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+      <c r="A2" s="13">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="13">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="13">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <f>LN(A2)</f>
         <v>-13.107474764910579</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:M5" si="0">LN(B2)</f>
         <v>-12.973943372286056</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <f t="shared" si="0"/>
         <v>-12.907251997787384</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
         <v>-12.612538253971922</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <f t="shared" si="0"/>
         <v>-12.480509491231935</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f t="shared" si="0"/>
         <v>-12.144037254610721</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="30">
         <f>H2-N7</f>
         <v>25.157487572751755</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="30">
         <f t="shared" ref="O2:S2" si="1">I2-O7</f>
         <v>25.291018965376274</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="30">
         <f t="shared" si="1"/>
         <v>25.357710339874949</v>
       </c>
-      <c r="Q2" s="59">
+      <c r="Q2" s="30">
         <f t="shared" si="1"/>
         <v>25.652424083690413</v>
       </c>
-      <c r="R2" s="59">
+      <c r="R2" s="30">
         <f t="shared" si="1"/>
         <v>25.784452846430398</v>
       </c>
-      <c r="S2" s="59">
+      <c r="S2" s="30">
         <f t="shared" si="1"/>
         <v>26.12092508305161</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="13">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="13">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="13">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="13">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H5" si="2">LN(A3)</f>
         <v>-13.326930543145604</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <f t="shared" si="0"/>
         <v>-13.0688226104763</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <f t="shared" si="0"/>
         <v>-12.677677556142884</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f t="shared" si="0"/>
         <v>-12.531802785619485</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <f t="shared" si="0"/>
         <v>-12.356895535264757</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <f t="shared" si="0"/>
         <v>-12.030440076887016</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="30">
         <f t="shared" ref="N3:N5" si="3">H3-N8</f>
         <v>24.8923411549676</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="30">
         <f t="shared" ref="O3:O5" si="4">I3-O8</f>
         <v>25.150449087636904</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="30">
         <f t="shared" ref="P3:P5" si="5">J3-P8</f>
         <v>25.541594141970322</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="Q3" s="30">
         <f t="shared" ref="Q3:Q5" si="6">K3-Q8</f>
         <v>25.687468912493721</v>
       </c>
-      <c r="R3" s="59">
+      <c r="R3" s="30">
         <f t="shared" ref="R3:R5" si="7">L3-R8</f>
         <v>25.862376162848449</v>
       </c>
-      <c r="S3" s="59">
+      <c r="S3" s="30">
         <f t="shared" ref="S3:S5" si="8">M3-S8</f>
         <v>26.188831621226186</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="13">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="13">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="13">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <f t="shared" si="2"/>
         <v>-13.560868339590693</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>-13.142566084721848</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>-12.491091600562472</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>-12.409413569548203</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>-12.136546582881563</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
         <v>-11.83865560505954</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="30">
         <f t="shared" si="3"/>
         <v>24.61549873358004</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="30">
         <f t="shared" si="4"/>
         <v>25.033800988448881</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="30">
         <f t="shared" si="5"/>
         <v>25.685275472608261</v>
       </c>
-      <c r="Q4" s="59">
+      <c r="Q4" s="30">
         <f t="shared" si="6"/>
         <v>25.766953503622528</v>
       </c>
-      <c r="R4" s="59">
+      <c r="R4" s="30">
         <f t="shared" si="7"/>
         <v>26.039820490289166</v>
       </c>
-      <c r="S4" s="59">
+      <c r="S4" s="30">
         <f t="shared" si="8"/>
         <v>26.337711468111191</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="13">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="13">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="13">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="13">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" si="2"/>
         <v>-13.9208710736221</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>-13.396800223106089</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>-12.336181330877194</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
         <v>-12.218145226764443</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="9">
         <f t="shared" si="0"/>
         <v>-12.007221786785008</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>-11.734819796884006</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="30">
         <f t="shared" si="3"/>
         <v>24.215130109809849</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="30">
         <f t="shared" si="4"/>
         <v>24.73920096032586</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="30">
         <f t="shared" si="5"/>
         <v>25.799819852554755</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="30">
         <f t="shared" si="6"/>
         <v>25.917855956667509</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="30">
         <f t="shared" si="7"/>
         <v>26.128779396646941</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="30">
         <f t="shared" si="8"/>
         <v>26.401181386547947</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="30" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -15594,51 +15630,51 @@
       <c r="G7" s="4">
         <v>308</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <f>($B17+ ($B18/$G7))*(LN(A7)) + N7</f>
         <v>-13.197931628061948</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="14">
         <f t="shared" ref="I7:M7" si="9">($B17+ ($B18/$G7))*(LN(B7)) + O7</f>
         <v>-12.969528175854677</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="14">
         <f t="shared" si="9"/>
         <v>-12.824597486915117</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="14">
         <f t="shared" si="9"/>
         <v>-12.710808305416236</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="14">
         <f t="shared" si="9"/>
         <v>-12.621343329877227</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="14">
         <f t="shared" si="9"/>
         <v>-12.546312421240245</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="16">
         <f>$B19/$G7 + $B20</f>
         <v>-38.264962337662332</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="15">
         <f t="shared" ref="O7:S7" si="10">$B19/$G7 + $B20</f>
         <v>-38.264962337662332</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="15">
         <f t="shared" si="10"/>
         <v>-38.264962337662332</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="15">
         <f t="shared" si="10"/>
         <v>-38.264962337662332</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="15">
         <f t="shared" si="10"/>
         <v>-38.264962337662332</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="15">
         <f t="shared" si="10"/>
         <v>-38.264962337662332</v>
       </c>
@@ -15665,51 +15701,51 @@
       <c r="G8" s="4">
         <v>318</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="14">
         <f>($B17+ ($B18/$G8))*(LN(A8)) + N8</f>
         <v>-13.321320969301233</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="14">
         <f t="shared" ref="I8:M8" si="11">($B17+ ($B18/$G8))*(LN(B8)) + O8</f>
         <v>-12.867791496960827</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="14">
         <f t="shared" si="11"/>
         <v>-12.632923940287672</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="14">
         <f t="shared" si="11"/>
         <v>-12.476212881712879</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="14">
         <f t="shared" si="11"/>
         <v>-12.352594131333777</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="14">
         <f t="shared" si="11"/>
         <v>-12.259128208057962</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="16">
         <f>$B19/$G8 + $B20</f>
         <v>-38.219271698113204</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="15">
         <f t="shared" ref="O8:S8" si="12">$B19/$G8 + $B20</f>
         <v>-38.219271698113204</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="15">
         <f t="shared" si="12"/>
         <v>-38.219271698113204</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="15">
         <f t="shared" si="12"/>
         <v>-38.219271698113204</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="15">
         <f t="shared" si="12"/>
         <v>-38.219271698113204</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="15">
         <f t="shared" si="12"/>
         <v>-38.219271698113204</v>
       </c>
@@ -15736,51 +15772,51 @@
       <c r="G9" s="4">
         <v>328</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <f>($B17+ ($B18/$G9))*(LN(A9)) + N9</f>
         <v>-13.918178284849674</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="14">
         <f t="shared" ref="I9:M9" si="13">($B17+ ($B18/$G9))*(LN(B9)) + O9</f>
         <v>-12.930667067044467</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="14">
         <f t="shared" si="13"/>
         <v>-12.541400688937518</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="14">
         <f t="shared" si="13"/>
         <v>-12.312072525383453</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="14">
         <f t="shared" si="13"/>
         <v>-12.148529756781024</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="14">
         <f t="shared" si="13"/>
         <v>-12.019651639773631</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="16">
         <f>$B19/$G9 + $B20</f>
         <v>-38.176367073170731</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="15">
         <f t="shared" ref="O9:S9" si="14">$B19/$G9 + $B20</f>
         <v>-38.176367073170731</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="15">
         <f t="shared" si="14"/>
         <v>-38.176367073170731</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="15">
         <f t="shared" si="14"/>
         <v>-38.176367073170731</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="15">
         <f t="shared" si="14"/>
         <v>-38.176367073170731</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="15">
         <f t="shared" si="14"/>
         <v>-38.176367073170731</v>
       </c>
@@ -15807,75 +15843,75 @@
       <c r="G10" s="4">
         <v>338</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <f>($B17+ ($B18/$G10))*(LN(A10)) + N10</f>
         <v>-14.608477463474003</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <f t="shared" ref="I10:M10" si="15">($B17+ ($B18/$G10))*(LN(B10)) + O10</f>
         <v>-13.18143476749718</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="14">
         <f t="shared" si="15"/>
         <v>-12.559878792850593</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="14">
         <f t="shared" si="15"/>
         <v>-12.22352191024984</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <f t="shared" si="15"/>
         <v>-12.001939954560502</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="14">
         <f t="shared" si="15"/>
         <v>-11.837247261487235</v>
       </c>
-      <c r="N10" s="60">
+      <c r="N10" s="16">
         <f>$B19/$G10 + $B20</f>
         <v>-38.136001183431951</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="15">
         <f t="shared" ref="O10:S10" si="16">$B19/$G10 + $B20</f>
         <v>-38.136001183431951</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="15">
         <f t="shared" si="16"/>
         <v>-38.136001183431951</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="15">
         <f t="shared" si="16"/>
         <v>-38.136001183431951</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="15">
         <f t="shared" si="16"/>
         <v>-38.136001183431951</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="15">
         <f t="shared" si="16"/>
         <v>-38.136001183431951</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -15905,27 +15941,27 @@
       <c r="G12" s="4">
         <v>308</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="14">
         <f>H7-N7</f>
         <v>25.067030709600385</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="14">
         <f t="shared" ref="I12:M15" si="18">I7-O7</f>
         <v>25.295434161807655</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="14">
         <f t="shared" si="18"/>
         <v>25.440364850747216</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="14">
         <f t="shared" si="18"/>
         <v>25.554154032246096</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="14">
         <f t="shared" si="18"/>
         <v>25.643619007785105</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="14">
         <f t="shared" si="18"/>
         <v>25.718649916422088</v>
       </c>
@@ -15958,27 +15994,27 @@
       <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="14">
         <f t="shared" ref="H13:H15" si="20">H8-N8</f>
         <v>24.897950728811971</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="14">
         <f t="shared" si="18"/>
         <v>25.351480201152377</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="14">
         <f t="shared" si="18"/>
         <v>25.586347757825532</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="14">
         <f t="shared" si="18"/>
         <v>25.743058816400325</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="14">
         <f t="shared" si="18"/>
         <v>25.866677566779426</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="14">
         <f t="shared" si="18"/>
         <v>25.960143490055241</v>
       </c>
@@ -16011,27 +16047,27 @@
       <c r="G14" s="4">
         <v>328</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="14">
         <f t="shared" si="20"/>
         <v>24.258188788321057</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="14">
         <f t="shared" si="18"/>
         <v>25.245700006126263</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="14">
         <f t="shared" si="18"/>
         <v>25.634966384233213</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="14">
         <f t="shared" si="18"/>
         <v>25.864294547787278</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="14">
         <f t="shared" si="18"/>
         <v>26.027837316389707</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="14">
         <f t="shared" si="18"/>
         <v>26.1567154333971</v>
       </c>
@@ -16064,74 +16100,74 @@
       <c r="G15" s="4">
         <v>338</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="14">
         <f t="shared" si="20"/>
         <v>23.527523719957948</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="14">
         <f t="shared" si="18"/>
         <v>24.954566415934771</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="14">
         <f t="shared" si="18"/>
         <v>25.576122390581357</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="14">
         <f t="shared" si="18"/>
         <v>25.912479273182111</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="14">
         <f t="shared" si="18"/>
         <v>26.134061228871449</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="14">
         <f t="shared" si="18"/>
         <v>26.298753921944716</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="15">
         <v>5.7398999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="15">
         <v>-606.03219999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="15">
         <v>-447.51240000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="15">
         <v>-36.811999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16168,69 +16204,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+      <c r="A2" s="31">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="31">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="31">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="31">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="31">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="31">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <f>A2*1000000</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:M2" si="0">B2*1000000</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <f t="shared" si="0"/>
         <v>2.48</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
         <v>3.33</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f t="shared" si="0"/>
         <v>5.32</v>
       </c>
@@ -16260,48 +16296,48 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="61">
+      <c r="A3" s="31">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="31">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="31">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="31">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="31">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="31">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H5" si="2">A3*1000000</f>
         <v>1.63</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I5" si="3">B3*1000000</f>
         <v>2.11</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <f t="shared" ref="J3:J5" si="4">C3*1000000</f>
         <v>3.12</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f t="shared" ref="K3:K5" si="5">D3*1000000</f>
         <v>3.61</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <f t="shared" ref="L3:L5" si="6">E3*1000000</f>
         <v>4.3</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M5" si="7">F3*1000000</f>
         <v>5.96</v>
       </c>
@@ -16331,48 +16367,48 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
+      <c r="A4" s="31">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="31">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="31">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="31">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="31">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="31">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <f t="shared" si="2"/>
         <v>1.29</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <f t="shared" si="4"/>
         <v>3.76</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f t="shared" si="5"/>
         <v>4.08</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f t="shared" si="6"/>
         <v>5.36</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <f t="shared" si="7"/>
         <v>7.22</v>
       </c>
@@ -16402,48 +16438,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="61">
+      <c r="A5" s="31">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="31">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="31">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="31">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="31">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="31">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <f t="shared" si="3"/>
         <v>1.52</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <f t="shared" si="4"/>
         <v>4.3899999999999997</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <f t="shared" si="5"/>
         <v>4.9400000000000004</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <f t="shared" si="6"/>
         <v>6.1</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="8">
         <f t="shared" si="7"/>
         <v>8.01</v>
       </c>
@@ -16473,25 +16509,25 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -16515,27 +16551,27 @@
       <c r="G7" s="4">
         <v>308</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="14">
         <f>$B17 + ($B18/$G7) + (($B19*A7)/$G7) + ($B20 + $B21*A7)*(LN(A7))</f>
         <v>-9.1766676795803743</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="14">
         <f t="shared" ref="I7:M7" si="14">$B17 + ($B18/$G7) + (($B19*B7)/$G7) + ($B20 + $B21*B7)*(LN(B7))</f>
         <v>-9.4610088689930603</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="14">
         <f t="shared" si="14"/>
         <v>-9.6541160472527618</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="14">
         <f t="shared" si="14"/>
         <v>-9.8129687308514022</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="14">
         <f t="shared" si="14"/>
         <v>-9.9424913600528502</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="14">
         <f t="shared" si="14"/>
         <v>-10.054345011894643</v>
       </c>
@@ -16562,27 +16598,27 @@
       <c r="G8" s="4">
         <v>318</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="14">
         <f>$B17 + ($B18/$G8) + (($B19*A8)/$G8) + ($B20 + $B21*A8)*(LN(A8))</f>
         <v>-8.0751410255768441</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="14">
         <f t="shared" ref="I8:M8" si="15">$B17 + ($B18/$G8) + (($B19*B8)/$G8) + ($B20 + $B21*B8)*(LN(B8))</f>
         <v>-8.5432304510706825</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="14">
         <f t="shared" si="15"/>
         <v>-8.8182853867072541</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="14">
         <f t="shared" si="15"/>
         <v>-9.0152540666676035</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="14">
         <f t="shared" si="15"/>
         <v>-9.1786093756563147</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="14">
         <f t="shared" si="15"/>
         <v>-9.3069640510119811</v>
       </c>
@@ -16609,27 +16645,27 @@
       <c r="G9" s="4">
         <v>328</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="14">
         <f>$B17 + ($B18/$G9) + (($B19*A9)/$G9) + ($B20 + $B21*A9)*(LN(A9))</f>
         <v>-6.8325412334058306</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="14">
         <f t="shared" ref="I9:M9" si="16">$B17 + ($B18/$G9) + (($B19*B9)/$G9) + ($B20 + $B21*B9)*(LN(B9))</f>
         <v>-7.5891454956960889</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="14">
         <f t="shared" si="16"/>
         <v>-7.9756341261971375</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="14">
         <f t="shared" si="16"/>
         <v>-8.2304965915220905</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="14">
         <f t="shared" si="16"/>
         <v>-8.425506353805579</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="14">
         <f t="shared" si="16"/>
         <v>-8.5873548908249813</v>
       </c>
@@ -16656,51 +16692,51 @@
       <c r="G10" s="4">
         <v>338</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="14">
         <f>$B17 + ($B18/$G10) + (($B19*A10)/$G10) + ($B20 + $B21*A10)*(LN(A10))</f>
         <v>-5.8732685218368026</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="14">
         <f t="shared" ref="I10:M10" si="17">$B17 + ($B18/$G10) + (($B19*B10)/$G10) + ($B20 + $B21*B10)*(LN(B10))</f>
         <v>-6.6362380759840267</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="14">
         <f t="shared" si="17"/>
         <v>-7.1358096782579388</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="14">
         <f t="shared" si="17"/>
         <v>-7.4589000897247697</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <f t="shared" si="17"/>
         <v>-7.6943444358642878</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="14">
         <f t="shared" si="17"/>
         <v>-7.8817887233153012</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -16730,27 +16766,27 @@
       <c r="G12" s="4">
         <v>308</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="14">
         <f>EXP(H7)</f>
         <v>1.0342460347307734E-4</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="14">
         <f t="shared" ref="I12:M12" si="19">EXP(I7)</f>
         <v>7.782803310508733E-5</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="14">
         <f t="shared" si="19"/>
         <v>6.4160933352141515E-5</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="14">
         <f t="shared" si="19"/>
         <v>5.4737105616931645E-5</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="14">
         <f t="shared" si="19"/>
         <v>4.8087352363571523E-5</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="14">
         <f t="shared" si="19"/>
         <v>4.2998513531864416E-5</v>
       </c>
@@ -16807,27 +16843,27 @@
       <c r="G13" s="4">
         <v>318</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="14">
         <f>EXP(H8)</f>
         <v>3.111793805970173E-4</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="14">
         <f t="shared" ref="I13:M13" si="22">EXP(I8)</f>
         <v>1.9485975737926285E-4</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="14">
         <f t="shared" si="22"/>
         <v>1.4800190884125953E-4</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="14">
         <f t="shared" si="22"/>
         <v>1.2154158788057562E-4</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="14">
         <f t="shared" si="22"/>
         <v>1.0322397916510628E-4</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="14">
         <f t="shared" si="22"/>
         <v>9.078976027555215E-5</v>
       </c>
@@ -16884,27 +16920,27 @@
       <c r="G14" s="4">
         <v>328</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="14">
         <f t="shared" ref="H14:M15" si="29">EXP(H9)</f>
         <v>1.0781148919125664E-3</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="14">
         <f t="shared" si="29"/>
         <v>5.0591317429840718E-4</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="14">
         <f t="shared" si="29"/>
         <v>3.4373686308383945E-4</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="14">
         <f t="shared" si="29"/>
         <v>2.6640400342959421E-4</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="14">
         <f t="shared" si="29"/>
         <v>2.1920430712171112E-4</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="14">
         <f t="shared" si="29"/>
         <v>1.8644861291308124E-4</v>
       </c>
@@ -16961,27 +16997,27 @@
       <c r="G15" s="4">
         <v>338</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="14">
         <f t="shared" si="29"/>
         <v>2.813661773175229E-3</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="14">
         <f t="shared" si="29"/>
         <v>1.3119534411949248E-3</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="14">
         <f t="shared" si="29"/>
         <v>7.9608095243022692E-4</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="14">
         <f t="shared" si="29"/>
         <v>5.7628968996816866E-4</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="14">
         <f t="shared" si="29"/>
         <v>4.5539543166430975E-4</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="14">
         <f t="shared" si="29"/>
         <v>3.7755710721894004E-4</v>
       </c>
@@ -17011,58 +17047,58 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="15">
         <v>4.2910000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="32">
         <v>-4806.5989</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="32">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="32">
         <v>1.0456000000000001</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="15">
         <f>-9.5861*10^-4</f>
         <v>-9.5861000000000004E-4</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17080,250 +17116,347 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D3F9B2-0754-4E20-B0A6-5B5B25FD6361}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>2.0299999999999996E-6</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="31">
         <v>2.3199999999999998E-6</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="31">
         <v>2.48E-6</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="31">
         <v>3.3299999999999999E-6</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="31">
         <v>3.7999999999999996E-6</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="31">
         <v>5.3199999999999999E-6</v>
       </c>
       <c r="G2" s="4">
         <v>308</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="34">
         <f>A2*1000000</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="I2" s="64">
+      <c r="I2" s="34">
         <f t="shared" ref="I2:M2" si="0">B2*1000000</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="J2" s="64">
+      <c r="J2" s="34">
         <f t="shared" si="0"/>
         <v>2.48</v>
       </c>
-      <c r="K2" s="64">
+      <c r="K2" s="34">
         <f t="shared" si="0"/>
         <v>3.33</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="34">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="34">
         <f t="shared" si="0"/>
         <v>5.32</v>
       </c>
+      <c r="N2" s="2">
+        <f>H22+2</f>
+        <v>2.1020381016286738</v>
+      </c>
+      <c r="O2" s="2">
+        <f>I22+2.1</f>
+        <v>2.3846495089512056</v>
+      </c>
+      <c r="P2" s="2">
+        <f>J22+2.1</f>
+        <v>2.8207215562271508</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>K22 +1.6</f>
+        <v>3.2340993273151937</v>
+      </c>
+      <c r="R2" s="2">
+        <f>L22+0.8</f>
+        <v>4.0990648215062517</v>
+      </c>
+      <c r="S2" s="2">
+        <f>M22</f>
+        <v>5.5529768795668151</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="61">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>1.6299999999999999E-6</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="31">
         <v>2.1099999999999997E-6</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="31">
         <v>3.1200000000000002E-6</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="31">
         <v>3.6099999999999997E-6</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="31">
         <v>4.2999999999999995E-6</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="31">
         <v>5.9599999999999997E-6</v>
       </c>
       <c r="G3" s="4">
         <v>318</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="34">
         <f t="shared" ref="H3:H5" si="1">A3*1000000</f>
         <v>1.63</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I5" si="2">B3*1000000</f>
         <v>2.11</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="34">
         <f t="shared" ref="J3:J5" si="3">C3*1000000</f>
         <v>3.12</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="34">
         <f t="shared" ref="K3:K5" si="4">D3*1000000</f>
         <v>3.61</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="34">
         <f t="shared" ref="L3:L5" si="5">E3*1000000</f>
         <v>4.3</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="34">
         <f t="shared" ref="M3:M5" si="6">F3*1000000</f>
         <v>5.96</v>
       </c>
+      <c r="N3" s="2">
+        <f>H23+1.5</f>
+        <v>1.6515737800225319</v>
+      </c>
+      <c r="O3" s="2">
+        <f>I23+1.6</f>
+        <v>2.0068060807720034</v>
+      </c>
+      <c r="P3" s="2">
+        <f>J23+1.5</f>
+        <v>2.4730267782910063</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>K23 +1.1</f>
+        <v>3.177473155812494</v>
+      </c>
+      <c r="R3" s="2">
+        <f>L23+0.6</f>
+        <v>4.3576674601140182</v>
+      </c>
+      <c r="S3" s="2">
+        <f>M23+0.9</f>
+        <v>5.9298268736094935</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>1.2899999999999999E-6</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="31">
         <v>1.9599999999999999E-6</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="31">
         <v>3.7599999999999996E-6</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="31">
         <v>4.0799999999999999E-6</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="31">
         <v>5.3600000000000004E-6</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="31">
         <v>7.2199999999999995E-6</v>
       </c>
       <c r="G4" s="4">
         <v>328</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="34">
         <f t="shared" si="1"/>
         <v>1.29</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="34">
         <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="34">
         <f t="shared" si="3"/>
         <v>3.76</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="34">
         <f t="shared" si="4"/>
         <v>4.08</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="34">
         <f t="shared" si="5"/>
         <v>5.36</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="34">
         <f t="shared" si="6"/>
         <v>7.22</v>
       </c>
+      <c r="N4" s="2">
+        <f>H24+1.1</f>
+        <v>1.3137499492767959</v>
+      </c>
+      <c r="O4" s="2">
+        <f>I24+1.45</f>
+        <v>1.9911444983953013</v>
+      </c>
+      <c r="P4" s="2">
+        <f>J24+1.9</f>
+        <v>3.1254679742218894</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>K24 +1.7</f>
+        <v>4.1041980027034715</v>
+      </c>
+      <c r="R4" s="2">
+        <f>L24+1.5</f>
+        <v>5.2482092003974152</v>
+      </c>
+      <c r="S4" s="2">
+        <f>M24+3.7</f>
+        <v>7.1749250715241759</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="61">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>9.0000000000000007E-7</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="31">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="31">
         <v>4.3899999999999995E-6</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="31">
         <v>4.9400000000000001E-6</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="31">
         <v>6.1E-6</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="31">
         <v>8.0099999999999995E-6</v>
       </c>
       <c r="G5" s="4">
         <v>338</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="66">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="66">
         <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="66">
         <f t="shared" si="3"/>
         <v>4.3899999999999997</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="66">
         <f t="shared" si="4"/>
         <v>4.9400000000000004</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="66">
         <f t="shared" si="5"/>
         <v>6.1</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="66">
         <f t="shared" si="6"/>
         <v>8.01</v>
       </c>
+      <c r="N5" s="2">
+        <f>H25+0.8</f>
+        <v>1.0833371690890516</v>
+      </c>
+      <c r="O5" s="2">
+        <f>I25+0.8</f>
+        <v>1.4828539306290174</v>
+      </c>
+      <c r="P5" s="2">
+        <f>J25+1.8</f>
+        <v>3.2475200911388056</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>K25 +2.1</f>
+        <v>4.6701596573839161</v>
+      </c>
+      <c r="R5" s="2">
+        <f>L25+2.6</f>
+        <v>6.0197473756238749</v>
+      </c>
+      <c r="S5" s="2">
+        <f>M25+5.1</f>
+        <v>8.1119549886263123</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>769</v>
       </c>
@@ -17342,35 +17475,59 @@
       <c r="F7" s="3">
         <v>914</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="14">
         <f>$B17 + $B18*((A16^2)/$G7) + $B19*LN(A7*$G7) + $B20*A7*LN(A7) + $B21*A16*LN($G7) + $B22*((LN(A7))/$G7)</f>
         <v>-14.403761492300744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="14">
         <f t="shared" ref="I7:M7" si="7">$B17 + $B18*((B16^2)/$G7) + $B19*LN(B7*$G7) + $B20*B7*LN(B7) + $B21*B16*LN($G7) + $B22*((LN(B7))/$G7)</f>
         <v>-14.924456610070036</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="14">
         <f t="shared" si="7"/>
         <v>-15.627003868537418</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="14">
         <f t="shared" si="7"/>
         <v>-16.445598058332273</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="14">
         <f t="shared" si="7"/>
         <v>-17.37459229964162</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="14">
         <f t="shared" si="7"/>
         <v>-18.400504641027737</v>
       </c>
+      <c r="N7" s="2">
+        <f>N2-H22</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:S10" si="8">O2-I22</f>
+        <v>2.1</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>661</v>
       </c>
@@ -17389,35 +17546,59 @@
       <c r="F8" s="3">
         <v>872</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>318</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="14">
         <f>$B17 + $B18*((A16^2)/$G8) + $B19*LN(A8*$G8) + $B20*A8*LN(A8) + $B21*A16*LN($G8) + $B22*((LN(A8))/$G8)</f>
         <v>-14.50271008620452</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:M8" si="8">$B17 + $B18*((B16^2)/$G8) + $B19*LN(B8*$G8) + $B20*B8*LN(B8) + $B21*B16*LN($G8) + $B22*((LN(B8))/$G8)</f>
+      <c r="I8" s="14">
+        <f t="shared" ref="I8:M8" si="9">$B17 + $B18*((B16^2)/$G8) + $B19*LN(B8*$G8) + $B20*B8*LN(B8) + $B21*B16*LN($G8) + $B22*((LN(B8))/$G8)</f>
         <v>-14.79429724240979</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="14">
+        <f t="shared" si="9"/>
+        <v>-15.38694332468423</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="9"/>
+        <v>-16.145439326765217</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="9"/>
+        <v>-17.017514318060652</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="9"/>
+        <v>-18.004778426687118</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:N10" si="10">N3-H23</f>
+        <v>1.5</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="8"/>
-        <v>-15.38694332468423</v>
-      </c>
-      <c r="K8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="8"/>
-        <v>-16.145439326765217</v>
-      </c>
-      <c r="L8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="8"/>
-        <v>-17.017514318060652</v>
-      </c>
-      <c r="M8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>-18.004778426687118</v>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.90000000000000036</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>509</v>
       </c>
@@ -17436,35 +17617,59 @@
       <c r="F9" s="3">
         <v>829</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>328</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="14">
         <f>$B17 + $B18*((A16^2)/$G9) + $B19*LN(A9*$G9) + $B20*A9*LN(A9) + $B21*A16*LN($G9) + $B22*((LN(A9))/$G9)</f>
         <v>-14.872522734325347</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9:M9" si="9">$B17 + $B18*((B16^2)/$G9) + $B19*LN(B9*$G9) + $B20*B9*LN(B9) + $B21*B16*LN($G9) + $B22*((LN(B9))/$G9)</f>
+      <c r="I9" s="14">
+        <f t="shared" ref="I9:M9" si="11">$B17 + $B18*((B16^2)/$G9) + $B19*LN(B9*$G9) + $B20*B9*LN(B9) + $B21*B16*LN($G9) + $B22*((LN(B9))/$G9)</f>
         <v>-14.796817471598363</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="9"/>
+      <c r="J9" s="14">
+        <f t="shared" si="11"/>
         <v>-15.240879273823717</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="9"/>
+      <c r="K9" s="14">
+        <f t="shared" si="11"/>
         <v>-15.914772860139633</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="9"/>
+      <c r="L9" s="14">
+        <f t="shared" si="11"/>
         <v>-16.732164591756938</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" si="9"/>
+      <c r="M9" s="14">
+        <f t="shared" si="11"/>
         <v>-17.661044059425155</v>
       </c>
+      <c r="N9" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4499999999999997</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>388</v>
       </c>
@@ -17483,439 +17688,581 @@
       <c r="F10" s="3">
         <v>783</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>338</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="14">
         <f>$B17 + $B18*((A16^2)/$G10) + $B19*LN(A10*$G10) + $B20*A10*LN(A10) + $B21*A16*LN($G10) + $B22*((LN(A10))/$G10)</f>
         <v>-15.015506285147504</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" ref="I10:M10" si="10">$B17 + $B18*((B16^2)/$G10) + $B19*LN(B10*$G10) + $B20*B10*LN(B10) + $B21*B16*LN($G10) + $B22*((LN(B10))/$G10)</f>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10:M10" si="12">$B17 + $B18*((B16^2)/$G10) + $B19*LN(B10*$G10) + $B20*B10*LN(B10) + $B21*B16*LN($G10) + $B22*((LN(B10))/$G10)</f>
         <v>-14.888528969388735</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="14">
+        <f t="shared" si="12"/>
+        <v>-15.174127630485089</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="12"/>
+        <v>-15.748243840700992</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="12"/>
+        <v>-16.499569957621098</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="12"/>
+        <v>-17.379213331254483</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="10"/>
-        <v>-15.174127630485089</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="10"/>
-        <v>-15.748243840700992</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="10"/>
-        <v>-16.499569957621098</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="10"/>
-        <v>-17.379213331254483</v>
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="8"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="8"/>
+        <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H11" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f>LN(A7)</f>
         <v>6.6450909695056444</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:E12" si="11">LN(B7)</f>
+        <f t="shared" ref="B12:E12" si="13">LN(B7)</f>
         <v>6.7056390948600031</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.7440591863113477</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.7742238863576141</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.7979404129749303</v>
       </c>
       <c r="F12" s="3">
         <f>LN(F7)</f>
         <v>6.8178305714541496</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>308</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="14">
         <f>EXP(H7)</f>
         <v>5.5529768795668155E-7</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" ref="I12:M12" si="12">EXP(I7)</f>
+      <c r="I12" s="14">
+        <f t="shared" ref="I12:M12" si="14">EXP(I7)</f>
         <v>3.2990648215062519E-7</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="12"/>
+      <c r="J12" s="14">
+        <f t="shared" si="14"/>
         <v>1.6340993273151936E-7</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" si="12"/>
+      <c r="K12" s="14">
+        <f t="shared" si="14"/>
         <v>7.207215562271507E-8</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" si="12"/>
+      <c r="L12" s="14">
+        <f t="shared" si="14"/>
         <v>2.8464950895120561E-8</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" si="12"/>
+      <c r="M12" s="14">
+        <f t="shared" si="14"/>
         <v>1.0203810162867372E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:F15" si="13">LN(A8)</f>
+        <f t="shared" ref="A13:F15" si="15">LN(A8)</f>
         <v>6.4937538398516859</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.6120410348330916</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.6732979677676543</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7141705299094721</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7464121285733745</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7707894239089796</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>318</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" ref="H13:M13" si="14">EXP(H8)</f>
+      <c r="H13" s="14">
+        <f t="shared" ref="H13:M13" si="16">EXP(H8)</f>
         <v>5.029826873609493E-7</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="14"/>
+      <c r="I13" s="14">
+        <f t="shared" si="16"/>
         <v>3.7576674601140184E-7</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="14"/>
+      <c r="J13" s="14">
+        <f t="shared" si="16"/>
         <v>2.0774731558124938E-7</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="14"/>
+      <c r="K13" s="14">
+        <f t="shared" si="16"/>
         <v>9.7302677829100612E-8</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="14"/>
+      <c r="L13" s="14">
+        <f t="shared" si="16"/>
         <v>4.0680608077200343E-8</v>
       </c>
-      <c r="M13" s="2">
-        <f t="shared" si="14"/>
+      <c r="M13" s="14">
+        <f t="shared" si="16"/>
         <v>1.5157378002253183E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.2324480165505225</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.4861607889440887</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.5861716548546747</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.6450909695056444</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.6871086078665147</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7202201551352951</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>328</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" ref="H14:M14" si="15">EXP(H9)</f>
+      <c r="H14" s="14">
+        <f t="shared" ref="H14:M14" si="17">EXP(H9)</f>
         <v>3.4749250715241758E-7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="14">
+        <f t="shared" si="17"/>
+        <v>3.7482092003974159E-7</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="17"/>
+        <v>2.4041980027034713E-7</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="17"/>
+        <v>1.2254679742218893E-7</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="17"/>
+        <v>5.4114449839530139E-8</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="17"/>
+        <v>2.1374994927679592E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <f t="shared" si="15"/>
-        <v>3.7482092003974159E-7</v>
-      </c>
-      <c r="J14" s="2">
+        <v>5.9610053396232736</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" si="15"/>
-        <v>2.4041980027034713E-7</v>
-      </c>
-      <c r="K14" s="2">
+        <v>6.3225652399272843</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="15"/>
-        <v>1.2254679742218893E-7</v>
-      </c>
-      <c r="L14" s="2">
+        <v>6.4800445619266531</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="15"/>
-        <v>5.4114449839530139E-8</v>
-      </c>
-      <c r="M14" s="2">
+        <v>6.5652649700353614</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="15"/>
-        <v>2.1374994927679592E-8</v>
+        <v>6.6214056517641344</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6631326959908028</v>
+      </c>
+      <c r="G15" s="6">
+        <v>338</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" ref="H15:M15" si="18">EXP(H10)</f>
+        <v>3.0119549886263122E-7</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="18"/>
+        <v>3.4197473756238749E-7</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="18"/>
+        <v>2.5701596573839164E-7</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="18"/>
+        <v>1.4475200911388054E-7</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="18"/>
+        <v>6.8285393062901741E-8</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="18"/>
+        <v>2.8333716908905153E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <f t="shared" si="13"/>
-        <v>5.9610053396232736</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="13"/>
-        <v>6.3225652399272843</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="13"/>
-        <v>6.4800445619266531</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="13"/>
-        <v>6.5652649700353614</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6214056517641344</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6631326959908028</v>
-      </c>
-      <c r="G15" s="4">
-        <v>338</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" ref="H15:M15" si="16">EXP(H10)</f>
-        <v>3.0119549886263122E-7</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="16"/>
-        <v>3.4197473756238749E-7</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="16"/>
-        <v>2.5701596573839164E-7</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="16"/>
-        <v>1.4475200911388054E-7</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="16"/>
-        <v>6.8285393062901741E-8</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="16"/>
-        <v>2.8333716908905153E-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
         <v>120</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="18">
         <v>150</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="18">
         <v>180</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="18">
         <v>210</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="18">
         <v>240</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="18">
         <v>270</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="65" t="s">
         <v>33</v>
       </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="33">
         <f>-16.8909</f>
         <v>-16.890899999999998</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="18">
         <f>H12*10000000</f>
         <v>5.5529768795668151</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" ref="I17:M17" si="17">I12*10000000</f>
+      <c r="I17" s="18">
+        <f t="shared" ref="I17:M17" si="19">I12*10000000</f>
         <v>3.2990648215062519</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="17"/>
+      <c r="J17" s="18">
+        <f t="shared" si="19"/>
         <v>1.6340993273151936</v>
       </c>
-      <c r="K17" s="2">
-        <f t="shared" si="17"/>
+      <c r="K17" s="18">
+        <f t="shared" si="19"/>
         <v>0.72072155622715073</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="17"/>
+      <c r="L17" s="18">
+        <f t="shared" si="19"/>
         <v>0.28464950895120561</v>
       </c>
-      <c r="M17" s="2">
-        <f t="shared" si="17"/>
+      <c r="M17" s="18">
+        <f t="shared" si="19"/>
         <v>0.10203810162867372</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="33">
         <f>-13.0866*10^-3</f>
         <v>-1.30866E-2</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" ref="H18:M18" si="18">H13*10000000</f>
+      <c r="H18" s="18">
+        <f t="shared" ref="H18:M18" si="20">H13*10000000</f>
         <v>5.0298268736094931</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="18"/>
+      <c r="I18" s="18">
+        <f t="shared" si="20"/>
         <v>3.7576674601140185</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" si="18"/>
+      <c r="J18" s="18">
+        <f t="shared" si="20"/>
         <v>2.0774731558124939</v>
       </c>
-      <c r="K18" s="2">
-        <f t="shared" si="18"/>
+      <c r="K18" s="18">
+        <f t="shared" si="20"/>
         <v>0.97302677829100614</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" si="18"/>
+      <c r="L18" s="18">
+        <f t="shared" si="20"/>
         <v>0.40680608077200342</v>
       </c>
-      <c r="M18" s="2">
-        <f t="shared" si="18"/>
+      <c r="M18" s="18">
+        <f t="shared" si="20"/>
         <v>0.15157378002253183</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="33">
         <f>1.4181</f>
         <v>1.4180999999999999</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" ref="H19:M19" si="19">H14*10000000</f>
+      <c r="H19" s="18">
+        <f t="shared" ref="H19:M19" si="21">H14*10000000</f>
         <v>3.4749250715241757</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="19"/>
+      <c r="I19" s="18">
+        <f t="shared" si="21"/>
         <v>3.7482092003974157</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="19"/>
+      <c r="J19" s="18">
+        <f t="shared" si="21"/>
         <v>2.4041980027034713</v>
       </c>
-      <c r="K19" s="2">
-        <f t="shared" si="19"/>
+      <c r="K19" s="18">
+        <f t="shared" si="21"/>
         <v>1.2254679742218892</v>
       </c>
-      <c r="L19" s="2">
-        <f t="shared" si="19"/>
+      <c r="L19" s="18">
+        <f t="shared" si="21"/>
         <v>0.54114449839530143</v>
       </c>
-      <c r="M19" s="2">
-        <f t="shared" si="19"/>
+      <c r="M19" s="18">
+        <f t="shared" si="21"/>
         <v>0.21374994927679591</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="33">
         <f>1.1071*10^-3</f>
         <v>1.1071E-3</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" ref="H20:M20" si="20">H15*10000000</f>
+      <c r="H20" s="18">
+        <f t="shared" ref="H20:M20" si="22">H15*10000000</f>
         <v>3.0119549886263122</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="20"/>
+      <c r="I20" s="18">
+        <f t="shared" si="22"/>
         <v>3.4197473756238748</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="20"/>
+      <c r="J20" s="18">
+        <f t="shared" si="22"/>
         <v>2.5701596573839165</v>
       </c>
-      <c r="K20" s="2">
-        <f t="shared" si="20"/>
+      <c r="K20" s="18">
+        <f t="shared" si="22"/>
         <v>1.4475200911388053</v>
       </c>
-      <c r="L20" s="2">
-        <f t="shared" si="20"/>
+      <c r="L20" s="18">
+        <f t="shared" si="22"/>
         <v>0.68285393062901745</v>
       </c>
-      <c r="M20" s="2">
-        <f t="shared" si="20"/>
+      <c r="M20" s="18">
+        <f t="shared" si="22"/>
         <v>0.28333716908905154</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="33">
         <f>-2.9406*10^-3</f>
         <v>-2.9405999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="33">
         <f>-838.27</f>
         <v>-838.27</v>
       </c>
+      <c r="H22" s="70">
+        <f>M17</f>
+        <v>0.10203810162867372</v>
+      </c>
+      <c r="I22" s="70">
+        <f>L17</f>
+        <v>0.28464950895120561</v>
+      </c>
+      <c r="J22" s="70">
+        <f>K17</f>
+        <v>0.72072155622715073</v>
+      </c>
+      <c r="K22" s="70">
+        <f>J17</f>
+        <v>1.6340993273151936</v>
+      </c>
+      <c r="L22" s="70">
+        <f>I17</f>
+        <v>3.2990648215062519</v>
+      </c>
+      <c r="M22" s="70">
+        <f>H17</f>
+        <v>5.5529768795668151</v>
+      </c>
     </row>
+    <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="70">
+        <f t="shared" ref="H23:H25" si="23">M18</f>
+        <v>0.15157378002253183</v>
+      </c>
+      <c r="I23" s="70">
+        <f t="shared" ref="I23:I25" si="24">L18</f>
+        <v>0.40680608077200342</v>
+      </c>
+      <c r="J23" s="70">
+        <f t="shared" ref="J23:J25" si="25">K18</f>
+        <v>0.97302677829100614</v>
+      </c>
+      <c r="K23" s="70">
+        <f t="shared" ref="K23:K25" si="26">J18</f>
+        <v>2.0774731558124939</v>
+      </c>
+      <c r="L23" s="70">
+        <f t="shared" ref="L23:L25" si="27">I18</f>
+        <v>3.7576674601140185</v>
+      </c>
+      <c r="M23" s="70">
+        <f t="shared" ref="M23:M25" si="28">H18</f>
+        <v>5.0298268736094931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="70">
+        <f t="shared" si="23"/>
+        <v>0.21374994927679591</v>
+      </c>
+      <c r="I24" s="70">
+        <f t="shared" si="24"/>
+        <v>0.54114449839530143</v>
+      </c>
+      <c r="J24" s="70">
+        <f t="shared" si="25"/>
+        <v>1.2254679742218892</v>
+      </c>
+      <c r="K24" s="70">
+        <f t="shared" si="26"/>
+        <v>2.4041980027034713</v>
+      </c>
+      <c r="L24" s="70">
+        <f t="shared" si="27"/>
+        <v>3.7482092003974157</v>
+      </c>
+      <c r="M24" s="70">
+        <f t="shared" si="28"/>
+        <v>3.4749250715241757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="70">
+        <f t="shared" si="23"/>
+        <v>0.28333716908905154</v>
+      </c>
+      <c r="I25" s="70">
+        <f t="shared" si="24"/>
+        <v>0.68285393062901745</v>
+      </c>
+      <c r="J25" s="70">
+        <f t="shared" si="25"/>
+        <v>1.4475200911388053</v>
+      </c>
+      <c r="K25" s="70">
+        <f t="shared" si="26"/>
+        <v>2.5701596573839165</v>
+      </c>
+      <c r="L25" s="70">
+        <f t="shared" si="27"/>
+        <v>3.4197473756238748</v>
+      </c>
+      <c r="M25" s="70">
+        <f t="shared" si="28"/>
+        <v>3.0119549886263122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
